--- a/data/2.社会和谐度2018-2022.xlsx
+++ b/data/2.社会和谐度2018-2022.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XWN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaohual\Desktop\建模数据\2018-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ED292E-B1FB-41DA-9BB9-913CBF8C4644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="38616" windowHeight="21096"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -21,8 +20,9 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="41">
   <si>
     <r>
       <rPr>
@@ -383,46 +383,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>住户存款余额为年末金融机构人民币各项存款余额的其中项。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据来源：国家统计局</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -462,52 +422,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>哈尔滨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年数据来源</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年度哈尔滨市城镇非私营单位从业人员年平均工资公告（国家统计局无数据）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>年末户籍人口（万人）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -523,17 +437,71 @@
     <t>城镇登记失业率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>社会抚养比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010年 2000年，劳动力人口年龄段是15~64岁，2020年，劳动力人口年龄段是15~59岁</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源:2000年 2010年 2020年数据来自第五、六、七次人口普查数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住户存款余额为年末金融机构人民币各项存款余额的其中项。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源：国家统计局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哈尔滨 2021年数据来源2021年度哈尔滨市城镇非私营单位从业人员年平均工资公告（国家统计局无数据）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2001~2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年，2011~2019年，2021~2022年数据来自复合增长率计算</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,20 +550,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -616,10 +570,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -657,7 +643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,25 +665,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1">
@@ -709,16 +686,13 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
@@ -727,7 +701,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -736,14 +710,28 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="3" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1221,6 +1209,540 @@
           </cell>
           <cell r="E30">
             <v>2.2000000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="主要城市年度数据"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>重庆</v>
+          </cell>
+          <cell r="B5">
+            <v>0.66026784061783694</v>
+          </cell>
+          <cell r="C5">
+            <v>0.63317833397264434</v>
+          </cell>
+          <cell r="D5">
+            <v>0.60720025715204118</v>
+          </cell>
+          <cell r="E5">
+            <v>0.58228801034975675</v>
+          </cell>
+          <cell r="F5">
+            <v>0.55839786463097474</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>成都</v>
+          </cell>
+          <cell r="B6">
+            <v>0.50846458588252408</v>
+          </cell>
+          <cell r="C6">
+            <v>0.48086157877130337</v>
+          </cell>
+          <cell r="D6">
+            <v>0.45475705557171958</v>
+          </cell>
+          <cell r="E6">
+            <v>0.43006966811672781</v>
+          </cell>
+          <cell r="F6">
+            <v>0.40672248438564862</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>上海</v>
+          </cell>
+          <cell r="B7">
+            <v>0.57942651502916998</v>
+          </cell>
+          <cell r="C7">
+            <v>0.53663623395121951</v>
+          </cell>
+          <cell r="D7">
+            <v>0.49700598802395218</v>
+          </cell>
+          <cell r="E7">
+            <v>0.46030241065331945</v>
+          </cell>
+          <cell r="F7">
+            <v>0.42630936922040863</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>北京</v>
+          </cell>
+          <cell r="B8">
+            <v>0.53831422971604925</v>
+          </cell>
+          <cell r="C8">
+            <v>0.49753990759580885</v>
+          </cell>
+          <cell r="D8">
+            <v>0.45985401459854014</v>
+          </cell>
+          <cell r="E8">
+            <v>0.42502261931958396</v>
+          </cell>
+          <cell r="F8">
+            <v>0.39282950936284683</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>天津</v>
+          </cell>
+          <cell r="B9">
+            <v>0.64595037423850021</v>
+          </cell>
+          <cell r="C9">
+            <v>0.59144818449347503</v>
+          </cell>
+          <cell r="D9">
+            <v>0.54154462771697243</v>
+          </cell>
+          <cell r="E9">
+            <v>0.49585169334871793</v>
+          </cell>
+          <cell r="F9">
+            <v>0.45401410929569652</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>西安</v>
+          </cell>
+          <cell r="B10">
+            <v>0.50468888439587345</v>
+          </cell>
+          <cell r="C10">
+            <v>0.48364888528612254</v>
+          </cell>
+          <cell r="D10">
+            <v>0.46348602370847364</v>
+          </cell>
+          <cell r="E10">
+            <v>0.44416373263427789</v>
+          </cell>
+          <cell r="F10">
+            <v>0.42564696947949721</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>石家庄</v>
+          </cell>
+          <cell r="B11">
+            <v>0.69658345034776881</v>
+          </cell>
+          <cell r="C11">
+            <v>0.65021976679668769</v>
+          </cell>
+          <cell r="D11">
+            <v>0.60694198939418298</v>
+          </cell>
+          <cell r="E11">
+            <v>0.56654472426236502</v>
+          </cell>
+          <cell r="F11">
+            <v>0.52883624827126741</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>哈尔滨</v>
+          </cell>
+          <cell r="B12">
+            <v>0.55481434892243264</v>
+          </cell>
+          <cell r="C12">
+            <v>0.5163778106413982</v>
+          </cell>
+          <cell r="D12">
+            <v>0.4806040864672787</v>
+          </cell>
+          <cell r="E12">
+            <v>0.44730870143731455</v>
+          </cell>
+          <cell r="F12">
+            <v>0.41631996068173105</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>广州</v>
+          </cell>
+          <cell r="B13">
+            <v>0.36845793982302522</v>
+          </cell>
+          <cell r="C13">
+            <v>0.35307263840676756</v>
+          </cell>
+          <cell r="D13">
+            <v>0.33832976445396146</v>
+          </cell>
+          <cell r="E13">
+            <v>0.32420249281281915</v>
+          </cell>
+          <cell r="F13">
+            <v>0.31066511844052824</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>武汉</v>
+          </cell>
+          <cell r="B14">
+            <v>0.49707357370312399</v>
+          </cell>
+          <cell r="C14">
+            <v>0.46463249920678407</v>
+          </cell>
+          <cell r="D14">
+            <v>0.43430866322432587</v>
+          </cell>
+          <cell r="E14">
+            <v>0.40596388602544575</v>
+          </cell>
+          <cell r="F14">
+            <v>0.37946900605976719</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>郑州</v>
+          </cell>
+          <cell r="B15">
+            <v>0.51133100456538461</v>
+          </cell>
+          <cell r="C15">
+            <v>0.48929737175766413</v>
+          </cell>
+          <cell r="D15">
+            <v>0.46821318455439731</v>
+          </cell>
+          <cell r="E15">
+            <v>0.44803753063923168</v>
+          </cell>
+          <cell r="F15">
+            <v>0.42873126063791733</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>青岛</v>
+          </cell>
+          <cell r="B16">
+            <v>0.62327094867872723</v>
+          </cell>
+          <cell r="C16">
+            <v>0.58812881973622011</v>
+          </cell>
+          <cell r="D16">
+            <v>0.55496812315347532</v>
+          </cell>
+          <cell r="E16">
+            <v>0.52367713905709745</v>
+          </cell>
+          <cell r="F16">
+            <v>0.49415044671887676</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>杭州</v>
+          </cell>
+          <cell r="B17">
+            <v>0.4716822384449747</v>
+          </cell>
+          <cell r="C17">
+            <v>0.44832618419824821</v>
+          </cell>
+          <cell r="D17">
+            <v>0.426126640045636</v>
+          </cell>
+          <cell r="E17">
+            <v>0.40502633965337859</v>
+          </cell>
+          <cell r="F17">
+            <v>0.38497085231621669</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>南宁</v>
+          </cell>
+          <cell r="B18">
+            <v>0.58514387024589909</v>
+          </cell>
+          <cell r="C18">
+            <v>0.56329287772773595</v>
+          </cell>
+          <cell r="D18">
+            <v>0.54225786551511401</v>
+          </cell>
+          <cell r="E18">
+            <v>0.52200836250433058</v>
+          </cell>
+          <cell r="F18">
+            <v>0.50251503547228404</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>合肥</v>
+          </cell>
+          <cell r="B19">
+            <v>0.5125607277059735</v>
+          </cell>
+          <cell r="C19">
+            <v>0.48887073087984761</v>
+          </cell>
+          <cell r="D19">
+            <v>0.4662756598240469</v>
+          </cell>
+          <cell r="E19">
+            <v>0.44472490826575028</v>
+          </cell>
+          <cell r="F19">
+            <v>0.42417020889877427</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>长春</v>
+          </cell>
+          <cell r="B20">
+            <v>0.5634197354317535</v>
+          </cell>
+          <cell r="C20">
+            <v>0.52666853937180313</v>
+          </cell>
+          <cell r="D20">
+            <v>0.49231457991344585</v>
+          </cell>
+          <cell r="E20">
+            <v>0.4602014881778389</v>
+          </cell>
+          <cell r="F20">
+            <v>0.43018309504124747</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>沈阳</v>
+          </cell>
+          <cell r="B21">
+            <v>0.61485537750382757</v>
+          </cell>
+          <cell r="C21">
+            <v>0.57084658561422097</v>
+          </cell>
+          <cell r="D21">
+            <v>0.52998776009791926</v>
+          </cell>
+          <cell r="E21">
+            <v>0.49205343945673302</v>
+          </cell>
+          <cell r="F21">
+            <v>0.45683429978923995</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>长沙</v>
+          </cell>
+          <cell r="B22">
+            <v>0.51686497402755904</v>
+          </cell>
+          <cell r="C22">
+            <v>0.49284418188523366</v>
+          </cell>
+          <cell r="D22">
+            <v>0.46993973247096865</v>
+          </cell>
+          <cell r="E22">
+            <v>0.4480997448526492</v>
+          </cell>
+          <cell r="F22">
+            <v>0.42727474921353548</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>福州</v>
+          </cell>
+          <cell r="B23">
+            <v>0.61755442367358981</v>
+          </cell>
+          <cell r="C23">
+            <v>0.58046071287496226</v>
+          </cell>
+          <cell r="D23">
+            <v>0.54559505409582687</v>
+          </cell>
+          <cell r="E23">
+            <v>0.51282361829361267</v>
+          </cell>
+          <cell r="F23">
+            <v>0.48202061493314541</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>南京</v>
+          </cell>
+          <cell r="B24">
+            <v>0.53491018883871444</v>
+          </cell>
+          <cell r="C24">
+            <v>0.49860946661982486</v>
+          </cell>
+          <cell r="D24">
+            <v>0.46477222791855871</v>
+          </cell>
+          <cell r="E24">
+            <v>0.4332312928368135</v>
+          </cell>
+          <cell r="F24">
+            <v>0.40383082684093874</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>济南</v>
+          </cell>
+          <cell r="B25">
+            <v>0.65336966516107942</v>
+          </cell>
+          <cell r="C25">
+            <v>0.61150726006920586</v>
+          </cell>
+          <cell r="D25">
+            <v>0.57232704402515722</v>
+          </cell>
+          <cell r="E25">
+            <v>0.53565716502777661</v>
+          </cell>
+          <cell r="F25">
+            <v>0.50133678189944597</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>宁波</v>
+          </cell>
+          <cell r="B26">
+            <v>0.48570271686961503</v>
+          </cell>
+          <cell r="C26">
+            <v>0.46026660425885968</v>
+          </cell>
+          <cell r="D26">
+            <v>0.43616257360333194</v>
+          </cell>
+          <cell r="E26">
+            <v>0.4133208641513561</v>
+          </cell>
+          <cell r="F26">
+            <v>0.39167536850190343</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>大连</v>
+          </cell>
+          <cell r="B27">
+            <v>0.66897518191739946</v>
+          </cell>
+          <cell r="C27">
+            <v>0.61823253288374369</v>
+          </cell>
+          <cell r="D27">
+            <v>0.57133878064110621</v>
+          </cell>
+          <cell r="E27">
+            <v>0.52800198129633191</v>
+          </cell>
+          <cell r="F27">
+            <v>0.48795233528524445</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>昆明</v>
+          </cell>
+          <cell r="B28">
+            <v>0.44024007727035896</v>
+          </cell>
+          <cell r="C28">
+            <v>0.4279635950838831</v>
+          </cell>
+          <cell r="D28">
+            <v>0.41602945341263092</v>
+          </cell>
+          <cell r="E28">
+            <v>0.40442810578990457</v>
+          </cell>
+          <cell r="F28">
+            <v>0.3931502719606349</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>南昌</v>
+          </cell>
+          <cell r="B29">
+            <v>0.50932709617598004</v>
+          </cell>
+          <cell r="C29">
+            <v>0.49419310624716417</v>
+          </cell>
+          <cell r="D29">
+            <v>0.47950880307737825</v>
+          </cell>
+          <cell r="E29">
+            <v>0.46526082481147402</v>
+          </cell>
+          <cell r="F29">
+            <v>0.45143620662438949</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>深圳</v>
+          </cell>
+          <cell r="B30">
+            <v>0.29451206268482782</v>
+          </cell>
+          <cell r="C30">
+            <v>0.27532457265706323</v>
+          </cell>
+          <cell r="D30">
+            <v>0.25738714950333208</v>
+          </cell>
+          <cell r="E30">
+            <v>0.24061835124308917</v>
+          </cell>
+          <cell r="F30">
+            <v>0.22494204184888053</v>
           </cell>
         </row>
       </sheetData>
@@ -1525,25 +2047,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="6" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.9140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="3"/>
+    <col min="4" max="4" width="27.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1551,23 +2074,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1580,16 +2105,19 @@
       <c r="D2" s="2">
         <v>3403.64</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>8.8205293570617946E-2</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="17">
         <v>0.03</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2" s="21">
+        <f>VLOOKUP(A2,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.55839786463097474</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1602,16 +2130,19 @@
       <c r="D3" s="2">
         <v>1476.05</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>0.13418698506506063</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="17">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="21">
+        <f>VLOOKUP(A3,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.40672248438564862</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1624,16 +2155,19 @@
       <c r="D4" s="2">
         <v>1462.38</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>0.21060124583964399</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="21">
+        <f>VLOOKUP(A4,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.42630936922040863</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1646,16 +2180,19 @@
       <c r="D5" s="2">
         <v>1375.8</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>0.2289382980283349</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="17">
         <v>1.3999999999999999E-2</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G5" s="21">
+        <f>VLOOKUP(A5,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.39282950936284683</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1668,16 +2205,19 @@
       <c r="D6" s="2">
         <v>1081.6300000000001</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>0.12203800371830895</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="17">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="21">
+        <f>VLOOKUP(A6,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.45401410929569652</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -1690,16 +2230,19 @@
       <c r="D7" s="2">
         <v>986.87</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>0.13635858453879776</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="17">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" s="21">
+        <f>VLOOKUP(A7,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.42564696947949721</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1712,16 +2255,19 @@
       <c r="D8" s="2">
         <v>981.6</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>0.112599294463714</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="17">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="21">
+        <f>VLOOKUP(A8,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.52883624827126741</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1734,16 +2280,19 @@
       <c r="D9" s="2">
         <v>951.54</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>9.2297358475167401E-2</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="17">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="21">
+        <f>VLOOKUP(A9,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.41631996068173105</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1756,16 +2305,19 @@
       <c r="D10" s="2">
         <v>927.69</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>0.2169629552931836</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="17">
         <v>1.9E-2</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="21">
+        <f>VLOOKUP(A10,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.31066511844052824</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1778,16 +2330,19 @@
       <c r="D11" s="2">
         <v>883.73</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>0.12376806171144586</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="17">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="21">
+        <f>VLOOKUP(A11,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.37946900605976719</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1800,16 +2355,19 @@
       <c r="D12" s="2">
         <v>863.9</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>0.10018583179299408</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="21">
+        <f>VLOOKUP(A12,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.42873126063791733</v>
+      </c>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1822,16 +2380,19 @@
       <c r="D13" s="2">
         <v>817.79</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>0.10773339100203695</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="17">
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="21">
+        <f>VLOOKUP(A13,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.49415044671887676</v>
+      </c>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1844,16 +2405,19 @@
       <c r="D14" s="2">
         <v>774.1</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>0.1899538596821575</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="17">
         <v>1.6E-2</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="21">
+        <f>VLOOKUP(A14,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.38497085231621669</v>
+      </c>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1866,16 +2430,19 @@
       <c r="D15" s="2">
         <v>770.82</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>8.5712660429552681E-2</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="17">
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="21">
+        <f>VLOOKUP(A15,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.50251503547228404</v>
+      </c>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1888,16 +2455,19 @@
       <c r="D16" s="2">
         <v>757.96</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>0.12530206186344961</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="17">
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G16" s="21">
+        <f>VLOOKUP(A16,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.42417020889877427</v>
+      </c>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1910,16 +2480,19 @@
       <c r="D17" s="2">
         <v>751.29</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>8.1093277978233833E-2</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G17" s="21">
+        <f>VLOOKUP(A17,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.43018309504124747</v>
+      </c>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -1932,16 +2505,19 @@
       <c r="D18" s="2">
         <v>745.99</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>0.12144520247482045</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="17">
         <v>3.1E-2</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G18" s="21">
+        <f>VLOOKUP(A18,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.45683429978923995</v>
+      </c>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1954,16 +2530,19 @@
       <c r="D19" s="2">
         <v>728.86</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>8.9322837960416082E-2</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G19" s="21">
+        <f>VLOOKUP(A19,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.42727474921353548</v>
+      </c>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -1976,16 +2555,19 @@
       <c r="D20" s="2">
         <v>702.66</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>0.13442141783087155</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="17">
         <v>2.4E-2</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G20" s="21">
+        <f>VLOOKUP(A20,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.48202061493314541</v>
+      </c>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -1998,16 +2580,19 @@
       <c r="D21" s="2">
         <v>696.94</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <v>0.18996873714379908</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="17">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G21" s="21">
+        <f>VLOOKUP(A21,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.40383082684093874</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -2020,16 +2605,19 @@
       <c r="D22" s="2">
         <v>655.9</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>0.10620347370202816</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="17">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G22" s="21">
+        <f>VLOOKUP(A22,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.50133678189944597</v>
+      </c>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
@@ -2042,16 +2630,19 @@
       <c r="D23" s="2">
         <v>602.96</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>0.16865286529807183</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="17">
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G23" s="21">
+        <f>VLOOKUP(A23,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.39167536850190343</v>
+      </c>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2064,16 +2655,19 @@
       <c r="D24" s="2">
         <v>595.21</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>0.13125892674318601</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="17">
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G24" s="21">
+        <f>VLOOKUP(A24,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.48795233528524445</v>
+      </c>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -2086,16 +2680,19 @@
       <c r="D25" s="2">
         <v>571.66999999999996</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>0.1048922609466726</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="17">
         <v>3.0899999999999997E-2</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G25" s="21">
+        <f>VLOOKUP(A25,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.3931502719606349</v>
+      </c>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
@@ -2108,16 +2705,19 @@
       <c r="D26" s="2">
         <v>531.88</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>0.10449389076382461</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="17">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G26" s="21">
+        <f>VLOOKUP(A26,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.45143620662438949</v>
+      </c>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -2130,54 +2730,119 @@
       <c r="D27" s="2">
         <v>545.47249999999997</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>0.37425367472814081</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="17">
         <v>2.3E-2</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="G27" s="21">
+        <f>VLOOKUP(A27,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <v>0.22494204184888053</v>
+      </c>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="G28" s="21"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="23"/>
-    </row>
-    <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="19"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="F39" s="24"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+  <sortState ref="A2:D37">
     <sortCondition descending="1" ref="D2:D37"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2187,25 +2852,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="3"/>
+    <col min="6" max="6" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2213,19 +2879,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -2238,15 +2907,19 @@
       <c r="D2" s="2">
         <v>3416.29</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>9.0477347942336819E-2</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="21">
         <f>(VLOOKUP(A2,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="21">
+        <f>VLOOKUP(A2,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.58228801034975675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -2259,15 +2932,19 @@
       <c r="D3" s="2">
         <v>1500.07</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>0.12922803966518229</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="21">
         <f>(VLOOKUP(A3,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="21">
+        <f>VLOOKUP(A3,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.43006966811672781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -2280,15 +2957,19 @@
       <c r="D4" s="2">
         <v>1469.3</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>0.2089945065875044</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="21">
         <f>(VLOOKUP(A4,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.6000000000000004E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="21">
+        <f>VLOOKUP(A4,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.46030241065331945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -2301,15 +2982,19 @@
       <c r="D5" s="2">
         <v>1397.4</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>0.23295319199618866</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="21">
         <f>(VLOOKUP(A5,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>1.3000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="21">
+        <f>VLOOKUP(A5,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.42502261931958396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2322,15 +3007,19 @@
       <c r="D6" s="2">
         <v>1108.18</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>0.12771999906375078</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
         <f>(VLOOKUP(A6,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="21">
+        <f>VLOOKUP(A6,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.49585169334871793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2343,15 +3032,19 @@
       <c r="D7" s="2">
         <v>1052.3900000000001</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>0.11734972830028677</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="21">
         <f>(VLOOKUP(A7,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="21">
+        <f>VLOOKUP(A7,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.56654472426236502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2364,15 +3057,19 @@
       <c r="D8" s="2">
         <v>956.74</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>0.13169917109384463</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <f>(VLOOKUP(A8,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="21">
+        <f>VLOOKUP(A8,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.44416373263427789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -2385,15 +3082,19 @@
       <c r="D9" s="2">
         <v>953.72</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>0.21193723663783545</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="21">
         <f>(VLOOKUP(A9,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="21">
+        <f>VLOOKUP(A9,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.32420249281281915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2406,15 +3107,19 @@
       <c r="D10" s="2">
         <v>951.34</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>9.7982966278589531E-2</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="21">
         <f>(VLOOKUP(A10,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="21">
+        <f>VLOOKUP(A10,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.44730870143731455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2427,15 +3132,19 @@
       <c r="D11" s="2">
         <v>906.4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>0.12749161239392146</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="21">
         <f>(VLOOKUP(A11,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="21">
+        <f>VLOOKUP(A11,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.40596388602544575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -2448,15 +3157,19 @@
       <c r="D12" s="2">
         <v>881.6</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>0.1002957505318321</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
         <f>(VLOOKUP(A12,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="21">
+        <f>VLOOKUP(A12,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.44803753063923168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -2469,15 +3182,19 @@
       <c r="D13" s="2">
         <v>831.07</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>0.11290753607696419</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="21">
         <f>(VLOOKUP(A13,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="21">
+        <f>VLOOKUP(A13,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.52367713905709745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -2490,15 +3207,19 @@
       <c r="D14" s="2">
         <v>796.74</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>0.11104029519057403</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="21">
         <f>(VLOOKUP(A14,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="21">
+        <f>VLOOKUP(A14,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.53565716502777661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -2511,15 +3232,19 @@
       <c r="D15" s="2">
         <v>795.37</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>0.19706725074609088</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="21">
         <f>(VLOOKUP(A15,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="21">
+        <f>VLOOKUP(A15,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.40502633965337859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -2532,15 +3257,19 @@
       <c r="D16" s="2">
         <v>781.97</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>8.6979313290555554E-2</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="21">
         <f>(VLOOKUP(A16,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="21">
+        <f>VLOOKUP(A16,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.52200836250433058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2553,15 +3282,19 @@
       <c r="D17" s="2">
         <v>770.44</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>0.12933412135539796</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="21">
         <f>(VLOOKUP(A17,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.7999999999999997E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="21">
+        <f>VLOOKUP(A17,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.44472490826575028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -2574,15 +3307,19 @@
       <c r="D18" s="2">
         <v>756.4</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>0.11813419461567246</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="21">
         <f>(VLOOKUP(A18,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.8999999999999998E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="21">
+        <f>VLOOKUP(A18,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.49205343945673302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
@@ -2595,15 +3332,19 @@
       <c r="D19" s="2">
         <v>753.8</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>8.466798721917522E-2</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="21">
         <f>(VLOOKUP(A19,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="21">
+        <f>VLOOKUP(A19,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.4602014881778389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -2616,15 +3357,19 @@
       <c r="D20" s="2">
         <v>738.24</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>8.814076041984234E-2</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="21">
         <f>(VLOOKUP(A20,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="21">
+        <f>VLOOKUP(A20,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.4480997448526492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
@@ -2637,15 +3382,19 @@
       <c r="D21" s="2">
         <v>710.09</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <v>0.14136295118049069</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="21">
         <f>(VLOOKUP(A21,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="21">
+        <f>VLOOKUP(A21,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.51282361829361267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
@@ -2658,15 +3407,19 @@
       <c r="D22" s="2">
         <v>709.82</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>0.18739393776788049</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="21">
         <f>(VLOOKUP(A22,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="21">
+        <f>VLOOKUP(A22,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.4332312928368135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
@@ -2679,15 +3432,19 @@
       <c r="D23" s="2">
         <v>608.47</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>0.16653675665887208</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="21">
         <f>(VLOOKUP(A23,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="21">
+        <f>VLOOKUP(A23,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.4133208641513561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2700,15 +3457,19 @@
       <c r="D24" s="2">
         <v>598.69000000000005</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>0.13111090418102245</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="21">
         <f>(VLOOKUP(A24,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="21">
+        <f>VLOOKUP(A24,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.52800198129633191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -2721,15 +3482,19 @@
       <c r="D25" s="2">
         <v>578.46</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>0.11082899694957832</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="21">
         <f>(VLOOKUP(A25,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="21">
+        <f>VLOOKUP(A25,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.40442810578990457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -2742,15 +3507,19 @@
       <c r="D26" s="2">
         <v>550.71</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>0.39598747774213661</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="21">
         <f>(VLOOKUP(A26,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="21">
+        <f>VLOOKUP(A26,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.24061835124308917</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
@@ -2763,45 +3532,103 @@
       <c r="D27" s="2">
         <v>536</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>0.1036009560753889</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="21">
         <f>(VLOOKUP(A27,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.3399999999999997E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="21">
+        <f>VLOOKUP(A27,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <v>0.46526082481147402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="21"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+  <sortState ref="A2:D37">
     <sortCondition descending="1" ref="D2:D37"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2811,25 +3638,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="6" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="3"/>
+    <col min="6" max="6" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2837,19 +3665,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -2859,18 +3690,22 @@
       <c r="C2" s="2">
         <v>98380</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <v>3412.71</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>9.0638341126245178E-2</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="21">
         <f>(VLOOKUP(A2,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G2" s="21">
+        <f>VLOOKUP(A2,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.60720025715204118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -2880,18 +3715,22 @@
       <c r="C3" s="2">
         <v>104463</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="14">
         <v>1519.7</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>0.12665728535462317</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="21">
         <f>(VLOOKUP(A3,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G3" s="21">
+        <f>VLOOKUP(A3,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.45475705557171958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -2901,18 +3740,22 @@
       <c r="C4" s="2">
         <v>174678</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>1475.63</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>0.21033558891216983</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="21">
         <f>(VLOOKUP(A4,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.7000000000000005E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G4" s="21">
+        <f>VLOOKUP(A4,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.49700598802395218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -2922,18 +3765,22 @@
       <c r="C5" s="2">
         <v>185026</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>1400.8</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>0.23069190275961216</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="21">
         <f>(VLOOKUP(A5,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G5" s="21">
+        <f>VLOOKUP(A5,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.45985401459854014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2943,18 +3790,22 @@
       <c r="C6" s="2">
         <v>118918</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <v>1130.68</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>0.13783447417548225</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
         <f>(VLOOKUP(A6,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.6000000000000004E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G6" s="21">
+        <f>VLOOKUP(A6,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.54154462771697243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -2964,18 +3815,22 @@
       <c r="C7" s="2">
         <v>84870</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>986.6</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>0.11656651349122187</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="21">
         <f>(VLOOKUP(A7,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G7" s="21">
+        <f>VLOOKUP(A7,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.60694198939418298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2985,18 +3840,22 @@
       <c r="C8" s="2">
         <v>135138</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <v>985.11</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>0.2006245467596087</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <f>(VLOOKUP(A8,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G8" s="21">
+        <f>VLOOKUP(A8,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.33832976445396146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -3006,18 +3865,22 @@
       <c r="C9" s="2">
         <v>104363</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="14">
         <v>978</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>0.13168460086429098</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="21">
         <f>(VLOOKUP(A9,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.6000000000000004E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G9" s="21">
+        <f>VLOOKUP(A9,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.46348602370847364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -3027,18 +3890,22 @@
       <c r="C10" s="2">
         <v>84796</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="14">
         <v>948.5</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>0.11156186612576065</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="21">
         <f>(VLOOKUP(A10,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G10" s="21">
+        <f>VLOOKUP(A10,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.4806040864672787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3048,18 +3915,22 @@
       <c r="C11" s="2">
         <v>104009</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="14">
         <v>916.2</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>0.14106471555346173</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="21">
         <f>(VLOOKUP(A11,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G11" s="21">
+        <f>VLOOKUP(A11,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.43430866322432587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -3069,18 +3940,22 @@
       <c r="C12" s="2">
         <v>89464</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="14">
         <v>898.9</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>0.11004426361441473</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
         <f>(VLOOKUP(A12,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G12" s="21">
+        <f>VLOOKUP(A12,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.46821318455439731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -3090,18 +3965,22 @@
       <c r="C13" s="2">
         <v>92905</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>853.4</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>9.825090145847909E-2</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="21">
         <f>(VLOOKUP(A13,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G13" s="21">
+        <f>VLOOKUP(A13,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.49231457991344585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -3111,18 +3990,22 @@
       <c r="C14" s="2">
         <v>116115</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>836.8</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>0.12106962924686733</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="21">
         <f>(VLOOKUP(A14,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G14" s="21">
+        <f>VLOOKUP(A14,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.55496812315347532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -3132,18 +4015,22 @@
       <c r="C15" s="2">
         <v>132188</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="14">
         <v>813.83</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>0.20764365903107695</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="21">
         <f>(VLOOKUP(A15,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G15" s="21">
+        <f>VLOOKUP(A15,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.426126640045636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -3153,18 +4040,22 @@
       <c r="C16" s="2">
         <v>108391</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <v>806.7</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>0.11331199084794863</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="21">
         <f>(VLOOKUP(A16,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G16" s="21">
+        <f>VLOOKUP(A16,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.57232704402515722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -3174,18 +4065,22 @@
       <c r="C17" s="2">
         <v>97079</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="14">
         <v>791.4</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>9.476817849380402E-2</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="21">
         <f>(VLOOKUP(A17,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G17" s="21">
+        <f>VLOOKUP(A17,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.54225786551511401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -3195,18 +4090,22 @@
       <c r="C18" s="2">
         <v>104818</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="14">
         <v>781.5</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>0.14563338357915626</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="21">
         <f>(VLOOKUP(A18,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G18" s="21">
+        <f>VLOOKUP(A18,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.4662756598240469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -3216,18 +4115,22 @@
       <c r="C19" s="2">
         <v>95908</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="14">
         <v>762.2</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>0.12112649622554948</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="21">
         <f>(VLOOKUP(A19,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G19" s="21">
+        <f>VLOOKUP(A19,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.52998776009791926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -3237,18 +4140,22 @@
       <c r="C20" s="2">
         <v>105603</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="14">
         <v>747.3</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>8.6285427497324887E-2</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="21">
         <f>(VLOOKUP(A20,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G20" s="21">
+        <f>VLOOKUP(A20,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.46993973247096865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -3258,18 +4165,22 @@
       <c r="C21" s="2">
         <v>138005</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>722.6</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <v>0.1824209267780153</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="21">
         <f>(VLOOKUP(A21,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G21" s="21">
+        <f>VLOOKUP(A21,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.46477222791855871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
@@ -3279,18 +4190,22 @@
       <c r="C22" s="2">
         <v>96478</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="14">
         <v>715.4</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>0.14900806401459399</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="21">
         <f>(VLOOKUP(A22,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G22" s="21">
+        <f>VLOOKUP(A22,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.54559505409582687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
@@ -3300,18 +4215,22 @@
       <c r="C23" s="2">
         <v>111286</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="14">
         <v>613.66</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>0.1586632640224287</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="21">
         <f>(VLOOKUP(A23,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G23" s="21">
+        <f>VLOOKUP(A23,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.43616257360333194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -3321,18 +4240,22 @@
       <c r="C24" s="2">
         <v>98812</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="14">
         <v>601.6</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>0.13663320244504715</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="21">
         <f>(VLOOKUP(A24,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G24" s="21">
+        <f>VLOOKUP(A24,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.57133878064110621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -3342,18 +4265,22 @@
       <c r="C25" s="2">
         <v>102304</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="14">
         <v>582.9</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>0.11936972161401314</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="21">
         <f>(VLOOKUP(A25,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G25" s="21">
+        <f>VLOOKUP(A25,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.41602945341263092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -3363,18 +4290,22 @@
       <c r="C26" s="2">
         <v>139436</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="14">
         <v>548.58000000000004</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>0.40767090277976992</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="21">
         <f>(VLOOKUP(A26,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G26" s="21">
+        <f>VLOOKUP(A26,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.25738714950333208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
@@ -3384,51 +4315,106 @@
       <c r="C27" s="2">
         <v>93774</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="14">
         <v>538.29999999999995</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>0.1158743361699405</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="21">
         <f>(VLOOKUP(A27,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.8999999999999998E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="21">
+        <f>VLOOKUP(A27,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <v>0.47950880307737825</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="21"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+  <sortState ref="A2:D37">
     <sortCondition descending="1" ref="D2:D37"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3437,26 +4423,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="6" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.08203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="3"/>
-    <col min="6" max="6" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.6640625" style="14"/>
+    <col min="6" max="6" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.6640625" style="11"/>
     <col min="11" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3464,20 +4451,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -3487,18 +4476,22 @@
       <c r="C2" s="2">
         <v>106966</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="15">
         <v>3414.7</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>9.6495530240542166E-2</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="21">
         <f>(VLOOKUP(A2,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.8999999999999998E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G2" s="21">
+        <f>VLOOKUP(A2,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.63317833397264434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -3508,18 +4501,22 @@
       <c r="C3" s="2">
         <v>113853</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <v>1556.2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>0.12027399788759113</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="21">
         <f>(VLOOKUP(A3,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.8999999999999998E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G3" s="21">
+        <f>VLOOKUP(A3,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.48086157877130337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -3529,18 +4526,22 @@
       <c r="C4" s="2">
         <v>196053</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <v>1492.9</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>0.21694383680784335</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="21">
         <f>(VLOOKUP(A4,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G4" s="21">
+        <f>VLOOKUP(A4,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.53663623395121951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -3550,18 +4551,22 @@
       <c r="C5" s="2">
         <v>201504</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>1413.5</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>0.22189313241534597</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="21">
         <f>(VLOOKUP(A5,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G5" s="21">
+        <f>VLOOKUP(A5,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.49753990759580885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3571,18 +4576,22 @@
       <c r="C6" s="2">
         <v>128171</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>1151.5999999999999</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>0.13819644809232809</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
         <f>(VLOOKUP(A6,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.7000000000000005E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G6" s="21">
+        <f>VLOOKUP(A6,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.59144818449347503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -3592,18 +4601,22 @@
       <c r="C7" s="2">
         <v>144288</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>1011.5</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>0.19445659039012778</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="21">
         <f>(VLOOKUP(A7,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G7" s="21">
+        <f>VLOOKUP(A7,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.35307263840676756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -3613,18 +4626,22 @@
       <c r="C8" s="2">
         <v>115574</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <v>999.5</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>0.12003055736215636</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <f>(VLOOKUP(A8,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.6000000000000004E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G8" s="21">
+        <f>VLOOKUP(A8,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.48364888528612254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -3634,18 +4651,22 @@
       <c r="C9" s="2">
         <v>89621</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>988</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>0.11603272137821842</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="21">
         <f>(VLOOKUP(A9,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G9" s="21">
+        <f>VLOOKUP(A9,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.65021976679668769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -3655,18 +4676,22 @@
       <c r="C10" s="2">
         <v>89587</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>943.2</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>0.11871093038781332</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="21">
         <f>(VLOOKUP(A10,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G10" s="21">
+        <f>VLOOKUP(A10,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.5163778106413982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3676,18 +4701,22 @@
       <c r="C11" s="2">
         <v>121608</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>934.4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>0.14110135348775538</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="21">
         <f>(VLOOKUP(A11,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.8999999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G11" s="21">
+        <f>VLOOKUP(A11,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.46463249920678407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -3697,18 +4726,22 @@
       <c r="C12" s="2">
         <v>96365</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>911.5</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>0.10600931500624787</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
         <f>(VLOOKUP(A12,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.7999999999999997E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G12" s="21">
+        <f>VLOOKUP(A12,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.48929737175766413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
@@ -3718,18 +4751,22 @@
       <c r="C13" s="2">
         <v>100463</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>851.7</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>9.912354397039122E-2</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="21">
         <f>(VLOOKUP(A13,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G13" s="21">
+        <f>VLOOKUP(A13,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.52666853937180313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -3739,18 +4776,22 @@
       <c r="C14" s="2">
         <v>127228</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>846.2</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>0.13259636363636362</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="21">
         <f>(VLOOKUP(A14,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G14" s="21">
+        <f>VLOOKUP(A14,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.58812881973622011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -3760,18 +4801,22 @@
       <c r="C15" s="2">
         <v>151121</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>834.5</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>0.22045084283671909</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="21">
         <f>(VLOOKUP(A15,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G15" s="21">
+        <f>VLOOKUP(A15,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.44832618419824821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -3781,18 +4826,22 @@
       <c r="C16" s="2">
         <v>119245</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>816.6</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>0.11876571928464207</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="21">
         <f>(VLOOKUP(A16,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G16" s="21">
+        <f>VLOOKUP(A16,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.61150726006920586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -3802,18 +4851,22 @@
       <c r="C17" s="2">
         <v>103013</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>800.9</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>9.4234277800980371E-2</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="21">
         <f>(VLOOKUP(A17,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.7999999999999997E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G17" s="21">
+        <f>VLOOKUP(A17,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.56329287772773595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -3823,18 +4876,22 @@
       <c r="C18" s="2">
         <v>111672</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>792.7</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>0.14803060237925092</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="21">
         <f>(VLOOKUP(A18,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.7999999999999997E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G18" s="21">
+        <f>VLOOKUP(A18,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.48887073087984761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -3844,18 +4901,22 @@
       <c r="C19" s="2">
         <v>101554</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>765.4</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>0.11689244663382595</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="21">
         <f>(VLOOKUP(A19,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G19" s="21">
+        <f>VLOOKUP(A19,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.57084658561422097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -3865,18 +4926,22 @@
       <c r="C20" s="2">
         <v>114805</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <v>760</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>8.3557622969967188E-2</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="21">
         <f>(VLOOKUP(A20,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G20" s="21">
+        <f>VLOOKUP(A20,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.49284418188523366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -3886,18 +4951,22 @@
       <c r="C21" s="2">
         <v>149087</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <v>733.7</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <v>0.14990162416573435</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="21">
         <f>(VLOOKUP(A21,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>1.7100000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G21" s="21">
+        <f>VLOOKUP(A21,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.49860946661982486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
@@ -3907,18 +4976,22 @@
       <c r="C22" s="2">
         <v>108133</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>723.4</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>0.15947926971849988</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="21">
         <f>(VLOOKUP(A22,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G22" s="21">
+        <f>VLOOKUP(A22,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.58046071287496226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -3928,18 +5001,22 @@
       <c r="C23" s="2">
         <v>155563</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>627.9</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>0.43652402608076268</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="21">
         <f>(VLOOKUP(A23,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G23" s="21">
+        <f>VLOOKUP(A23,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.27532457265706323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
@@ -3949,18 +5026,22 @@
       <c r="C24" s="2">
         <v>127011</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <v>618.29999999999995</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>0.14390591460884936</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="21">
         <f>(VLOOKUP(A24,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G24" s="21">
+        <f>VLOOKUP(A24,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.46026660425885968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -3970,18 +5051,22 @@
       <c r="C25" s="2">
         <v>107390</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <v>603.6</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>0.12616039060371745</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="21">
         <f>(VLOOKUP(A25,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G25" s="21">
+        <f>VLOOKUP(A25,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.61823253288374369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -3991,18 +5076,22 @@
       <c r="C26" s="2">
         <v>111460</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>588.6</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>0.12888170694109266</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="21">
         <f>(VLOOKUP(A26,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G26" s="21">
+        <f>VLOOKUP(A26,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.4279635950838831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
@@ -4012,79 +5101,121 @@
       <c r="C27" s="2">
         <v>102084</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="15">
         <v>540.4</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>0.10574205945518254</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="21">
         <f>(VLOOKUP(A27,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="3"/>
+      <c r="G27" s="21">
+        <f>VLOOKUP(A27,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <v>0.49419310624716417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="3"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="21"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="3"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+  <sortState ref="A2:D37">
     <sortCondition descending="1" ref="D2:D37"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4093,27 +5224,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.9140625" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.4140625" style="3" customWidth="1"/>
-    <col min="7" max="10" width="8.9140625" style="3"/>
-    <col min="11" max="11" width="8.9140625" style="14"/>
-    <col min="12" max="16384" width="8.9140625" style="3"/>
+    <col min="4" max="4" width="27.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="8.88671875" style="11"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4121,19 +5253,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -4143,18 +5278,22 @@
       <c r="C2" s="2">
         <v>114397.53385044116</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="15">
         <v>3411.835</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>0.10016608776478646</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="21">
         <f>(VLOOKUP(A2,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>5.4000000000000006E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G2" s="21">
+        <f>VLOOKUP(A2,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.66026784061783694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -4164,18 +5303,22 @@
       <c r="C3" s="2">
         <v>121421.71408740396</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <v>1571.6</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>0.11115837793003147</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="21">
         <f>(VLOOKUP(A3,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G3" s="21">
+        <f>VLOOKUP(A3,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.50846458588252408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -4185,18 +5328,22 @@
       <c r="C4" s="2">
         <v>212151.33259964079</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <v>1475.0525</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>0.20268920081408279</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="21">
         <f>(VLOOKUP(A4,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G4" s="21">
+        <f>VLOOKUP(A4,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.57942651502916998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -4206,18 +5353,22 @@
       <c r="C5" s="2">
         <v>216992.87536021005</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>1396.8750000000002</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>0.24972931668479678</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="21">
         <f>(VLOOKUP(A5,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G5" s="21">
+        <f>VLOOKUP(A5,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.53831422971604925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -4227,18 +5378,22 @@
       <c r="C6" s="2">
         <v>135067.52424158546</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>1118.0225</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>0.15321953988704043</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
         <f>(VLOOKUP(A6,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>5.7999999999999996E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G6" s="21">
+        <f>VLOOKUP(A6,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.64595037423850021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -4248,18 +5403,22 @@
       <c r="C7" s="2">
         <v>153776.31454024554</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>1049</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>0.19297186133638533</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="21">
         <f>(VLOOKUP(A7,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.53E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G7" s="21">
+        <f>VLOOKUP(A7,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.36845793982302522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -4269,18 +5428,22 @@
       <c r="C8" s="2">
         <v>93666.007616939503</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <v>1002.1474999999999</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>0.13844196820832336</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <f>(VLOOKUP(A8,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.2300000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G8" s="21">
+        <f>VLOOKUP(A8,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.69658345034776881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -4290,18 +5453,22 @@
       <c r="C9" s="2">
         <v>124033.63818948949</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>980.27749999999992</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>0.11460017216642755</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="21">
         <f>(VLOOKUP(A9,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.6000000000000004E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G9" s="21">
+        <f>VLOOKUP(A9,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.50468888439587345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -4311,18 +5478,22 @@
       <c r="C10" s="2">
         <v>94693.243522273449</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>948.64499999999998</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>0.12445026542754037</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="21">
         <f>(VLOOKUP(A10,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.4500000000000003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G10" s="21">
+        <f>VLOOKUP(A10,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.55481434892243264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -4332,18 +5503,22 @@
       <c r="C11" s="2">
         <v>131728.3683564559</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>944.4</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>0.14354025382951985</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="21">
         <f>(VLOOKUP(A11,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G11" s="21">
+        <f>VLOOKUP(A11,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.49707357370312399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -4353,18 +5528,22 @@
       <c r="C12" s="2">
         <v>100653.18203017936</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>888.97500000000002</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>0.10073663278287612</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
         <f>(VLOOKUP(A12,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.58E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G12" s="21">
+        <f>VLOOKUP(A12,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.51133100456538461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -4374,18 +5553,22 @@
       <c r="C13" s="2">
         <v>164856.38067089103</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>846.7</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>0.22828627388505188</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="21">
         <f>(VLOOKUP(A13,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G13" s="21">
+        <f>VLOOKUP(A13,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.4716822384449747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -4395,18 +5578,22 @@
       <c r="C14" s="2">
         <v>138407.33097810793</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>832.96500000000003</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>0.1362113606340819</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="21">
         <f>(VLOOKUP(A14,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.7400000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G14" s="21">
+        <f>VLOOKUP(A14,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.62327094867872723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -4416,18 +5603,22 @@
       <c r="C15" s="2">
         <v>106208.65549826225</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>802.5474999999999</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>0.1006136151694125</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="21">
         <f>(VLOOKUP(A15,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>5.4000000000000006E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G15" s="21">
+        <f>VLOOKUP(A15,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.5634197354317535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -4437,18 +5628,22 @@
       <c r="C16" s="2">
         <v>118183.27783232543</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>800.2</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>0.14680225112893441</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="21">
         <f>(VLOOKUP(A16,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.81E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G16" s="21">
+        <f>VLOOKUP(A16,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.5125607277059735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -4458,18 +5653,22 @@
       <c r="C17" s="2">
         <v>108581.50490510151</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>786.27250000000004</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>9.2235896083976421E-2</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="21">
         <f>(VLOOKUP(A17,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G17" s="21">
+        <f>VLOOKUP(A17,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.58514387024589909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -4479,18 +5678,22 @@
       <c r="C18" s="2">
         <v>127354.97661171682</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>768.98500000000001</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>0.13269304208355612</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="21">
         <f>(VLOOKUP(A18,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.0299999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G18" s="21">
+        <f>VLOOKUP(A18,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.65336966516107942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -4500,18 +5703,22 @@
       <c r="C19" s="2">
         <v>107109.78635997986</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>757.49749999999995</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>0.10576857933152181</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="21">
         <f>(VLOOKUP(A19,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.1400000000000004E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G19" s="21">
+        <f>VLOOKUP(A19,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.61485537750382757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -4521,18 +5728,22 @@
       <c r="C20" s="2">
         <v>120917.38292143865</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <v>743.6</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>8.3566827093136675E-2</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="21">
         <f>(VLOOKUP(A20,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G20" s="21">
+        <f>VLOOKUP(A20,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.51686497402755904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
@@ -4542,18 +5753,22 @@
       <c r="C21" s="2">
         <v>115464.80134043671</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <v>728.8</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <v>0.17290363691012925</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="21">
         <f>(VLOOKUP(A21,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.1600000000000003E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G21" s="21">
+        <f>VLOOKUP(A21,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.61755442367358981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
@@ -4563,18 +5778,22 @@
       <c r="C22" s="2">
         <v>160472.1048789325</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>715.7650000000001</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>0.17743902548820126</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="21">
         <f>(VLOOKUP(A22,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.6499999999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G22" s="21">
+        <f>VLOOKUP(A22,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.53491018883871444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
@@ -4584,18 +5803,22 @@
       <c r="C23" s="2">
         <v>134062.16570006646</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>621.1</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>0.15833452235524065</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="21">
         <f>(VLOOKUP(A23,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G23" s="21">
+        <f>VLOOKUP(A23,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.48570271686961503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -4605,18 +5828,22 @@
       <c r="C24" s="2">
         <v>113002.66668824156</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <v>599.77500000000009</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>0.13052048132249519</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="21">
         <f>(VLOOKUP(A24,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G24" s="21">
+        <f>VLOOKUP(A24,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.66897518191739946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
@@ -4626,18 +5853,22 @@
       <c r="C25" s="2">
         <v>120999.47316203546</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <v>580.40750000000003</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>0.13813165862958393</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="21">
         <f>(VLOOKUP(A25,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.8599999999999995E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G25" s="21">
+        <f>VLOOKUP(A25,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.44024007727035896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -4647,18 +5878,22 @@
       <c r="C26" s="2">
         <v>168989.93786377431</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>545.47249999999997</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>0.49629850772990541</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="21">
         <f>(VLOOKUP(A26,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G26" s="21">
+        <f>VLOOKUP(A26,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.29451206268482782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
@@ -4668,63 +5903,124 @@
       <c r="C27" s="2">
         <v>107611.20326178905</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="14">
         <v>536.64499999999998</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>0.10010487226630541</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="21">
         <f>(VLOOKUP(A27,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="21">
+        <f>VLOOKUP(A27,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <v>0.50932709617598004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="21"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="21"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="21"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="21"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E41" s="16"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E41" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+  <sortState ref="A2:D37">
     <sortCondition descending="1" ref="D2:D37"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/2.社会和谐度2018-2022.xlsx
+++ b/data/2.社会和谐度2018-2022.xlsx
@@ -21,6 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -501,7 +502,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +608,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -643,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +734,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="百分比" xfId="3" builtinId="5"/>
@@ -755,35 +765,24 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>地区</v>
-          </cell>
-          <cell r="B4">
-            <v>2022</v>
-          </cell>
-          <cell r="C4">
-            <v>2021</v>
-          </cell>
-          <cell r="D4">
-            <v>2020</v>
-          </cell>
-        </row>
         <row r="5">
           <cell r="A5" t="str">
             <v>重庆</v>
           </cell>
           <cell r="B5">
-            <v>5.4</v>
+            <v>0.66026784061783694</v>
           </cell>
           <cell r="C5">
-            <v>2.9</v>
+            <v>0.63317833397264434</v>
           </cell>
           <cell r="D5">
-            <v>4.5</v>
+            <v>0.60720025715204118</v>
           </cell>
           <cell r="E5">
-            <v>2.6</v>
+            <v>0.58228801034975675</v>
+          </cell>
+          <cell r="F5">
+            <v>0.55839786463097474</v>
           </cell>
         </row>
         <row r="6">
@@ -791,16 +790,19 @@
             <v>成都</v>
           </cell>
           <cell r="B6">
-            <v>2</v>
+            <v>0.50846458588252408</v>
           </cell>
           <cell r="C6">
-            <v>2.9</v>
+            <v>0.48086157877130337</v>
           </cell>
           <cell r="D6">
-            <v>3</v>
+            <v>0.45475705557171958</v>
           </cell>
           <cell r="E6">
-            <v>3.3</v>
+            <v>0.43006966811672781</v>
+          </cell>
+          <cell r="F6">
+            <v>0.40672248438564862</v>
           </cell>
         </row>
         <row r="7">
@@ -808,16 +810,19 @@
             <v>上海</v>
           </cell>
           <cell r="B7">
-            <v>4.5</v>
+            <v>0.57942651502916998</v>
           </cell>
           <cell r="C7">
-            <v>2.7</v>
+            <v>0.53663623395121951</v>
           </cell>
           <cell r="D7">
-            <v>3.7</v>
+            <v>0.49700598802395218</v>
           </cell>
           <cell r="E7">
-            <v>3.6</v>
+            <v>0.46030241065331945</v>
+          </cell>
+          <cell r="F7">
+            <v>0.42630936922040863</v>
           </cell>
         </row>
         <row r="8">
@@ -825,16 +830,19 @@
             <v>北京</v>
           </cell>
           <cell r="B8">
-            <v>4.7</v>
+            <v>0.53831422971604925</v>
           </cell>
           <cell r="C8">
-            <v>3.2</v>
+            <v>0.49753990759580885</v>
           </cell>
           <cell r="D8">
-            <v>2.6</v>
+            <v>0.45985401459854014</v>
           </cell>
           <cell r="E8">
-            <v>1.3</v>
+            <v>0.42502261931958396</v>
+          </cell>
+          <cell r="F8">
+            <v>0.39282950936284683</v>
           </cell>
         </row>
         <row r="9">
@@ -842,16 +850,19 @@
             <v>天津</v>
           </cell>
           <cell r="B9">
-            <v>5.8</v>
+            <v>0.64595037423850021</v>
           </cell>
           <cell r="C9">
-            <v>3.7</v>
+            <v>0.59144818449347503</v>
           </cell>
           <cell r="D9">
-            <v>3.6</v>
+            <v>0.54154462771697243</v>
           </cell>
           <cell r="E9">
-            <v>3.5</v>
+            <v>0.49585169334871793</v>
+          </cell>
+          <cell r="F9">
+            <v>0.45401410929569652</v>
           </cell>
         </row>
         <row r="10">
@@ -859,16 +870,19 @@
             <v>西安</v>
           </cell>
           <cell r="B10">
-            <v>3.6</v>
+            <v>0.50468888439587345</v>
           </cell>
           <cell r="C10">
-            <v>3.6</v>
+            <v>0.48364888528612254</v>
           </cell>
           <cell r="D10">
-            <v>3.6</v>
+            <v>0.46348602370847364</v>
           </cell>
           <cell r="E10">
-            <v>3.3</v>
+            <v>0.44416373263427789</v>
+          </cell>
+          <cell r="F10">
+            <v>0.42564696947949721</v>
           </cell>
         </row>
         <row r="11">
@@ -876,16 +890,19 @@
             <v>石家庄</v>
           </cell>
           <cell r="B11">
-            <v>3.23</v>
+            <v>0.69658345034776881</v>
           </cell>
           <cell r="C11">
-            <v>3.4</v>
+            <v>0.65021976679668769</v>
           </cell>
           <cell r="D11">
-            <v>3.8</v>
+            <v>0.60694198939418298</v>
           </cell>
           <cell r="E11">
-            <v>3.2</v>
+            <v>0.56654472426236502</v>
+          </cell>
+          <cell r="F11">
+            <v>0.52883624827126741</v>
           </cell>
         </row>
         <row r="12">
@@ -893,16 +910,19 @@
             <v>哈尔滨</v>
           </cell>
           <cell r="B12">
-            <v>3.45</v>
+            <v>0.55481434892243264</v>
           </cell>
           <cell r="C12">
-            <v>3.4</v>
+            <v>0.5163778106413982</v>
           </cell>
           <cell r="D12">
-            <v>3.5</v>
+            <v>0.4806040864672787</v>
           </cell>
           <cell r="E12">
-            <v>3.5</v>
+            <v>0.44730870143731455</v>
+          </cell>
+          <cell r="F12">
+            <v>0.41631996068173105</v>
           </cell>
         </row>
         <row r="13">
@@ -910,16 +930,19 @@
             <v>广州</v>
           </cell>
           <cell r="B13">
-            <v>2.5299999999999998</v>
+            <v>0.36845793982302522</v>
           </cell>
           <cell r="C13">
-            <v>2.2000000000000002</v>
+            <v>0.35307263840676756</v>
           </cell>
           <cell r="D13">
-            <v>2.5</v>
+            <v>0.33832976445396146</v>
           </cell>
           <cell r="E13">
-            <v>2.2000000000000002</v>
+            <v>0.32420249281281915</v>
+          </cell>
+          <cell r="F13">
+            <v>0.31066511844052824</v>
           </cell>
         </row>
         <row r="14">
@@ -927,16 +950,19 @@
             <v>武汉</v>
           </cell>
           <cell r="B14">
-            <v>2.6</v>
+            <v>0.49707357370312399</v>
           </cell>
           <cell r="C14">
-            <v>2.9</v>
+            <v>0.46463249920678407</v>
           </cell>
           <cell r="D14">
-            <v>3</v>
+            <v>0.43430866322432587</v>
           </cell>
           <cell r="E14">
-            <v>2</v>
+            <v>0.40596388602544575</v>
+          </cell>
+          <cell r="F14">
+            <v>0.37946900605976719</v>
           </cell>
         </row>
         <row r="15">
@@ -944,16 +970,19 @@
             <v>郑州</v>
           </cell>
           <cell r="B15">
-            <v>2.58</v>
+            <v>0.51133100456538461</v>
           </cell>
           <cell r="C15">
-            <v>2.8</v>
+            <v>0.48929737175766413</v>
           </cell>
           <cell r="D15">
-            <v>2</v>
+            <v>0.46821318455439731</v>
           </cell>
           <cell r="E15">
-            <v>1.8</v>
+            <v>0.44803753063923168</v>
+          </cell>
+          <cell r="F15">
+            <v>0.42873126063791733</v>
           </cell>
         </row>
         <row r="16">
@@ -961,16 +990,19 @@
             <v>青岛</v>
           </cell>
           <cell r="B16">
-            <v>2.74</v>
+            <v>0.62327094867872723</v>
           </cell>
           <cell r="C16">
-            <v>2.7</v>
+            <v>0.58812881973622011</v>
           </cell>
           <cell r="D16">
-            <v>3</v>
+            <v>0.55496812315347532</v>
           </cell>
           <cell r="E16">
-            <v>3</v>
+            <v>0.52367713905709745</v>
+          </cell>
+          <cell r="F16">
+            <v>0.49415044671887676</v>
           </cell>
         </row>
         <row r="17">
@@ -978,16 +1010,19 @@
             <v>杭州</v>
           </cell>
           <cell r="B17">
-            <v>2.2999999999999998</v>
+            <v>0.4716822384449747</v>
           </cell>
           <cell r="C17">
-            <v>2.2999999999999998</v>
+            <v>0.44832618419824821</v>
           </cell>
           <cell r="D17">
-            <v>2.4</v>
+            <v>0.426126640045636</v>
           </cell>
           <cell r="E17">
-            <v>1.8</v>
+            <v>0.40502633965337859</v>
+          </cell>
+          <cell r="F17">
+            <v>0.38497085231621669</v>
           </cell>
         </row>
         <row r="18">
@@ -995,16 +1030,19 @@
             <v>南宁</v>
           </cell>
           <cell r="B18">
-            <v>3.1</v>
+            <v>0.58514387024589909</v>
           </cell>
           <cell r="C18">
-            <v>2.8</v>
+            <v>0.56329287772773595</v>
           </cell>
           <cell r="D18">
-            <v>3.1</v>
+            <v>0.54225786551511401</v>
           </cell>
           <cell r="E18">
-            <v>2.7</v>
+            <v>0.52200836250433058</v>
+          </cell>
+          <cell r="F18">
+            <v>0.50251503547228404</v>
           </cell>
         </row>
         <row r="19">
@@ -1012,16 +1050,19 @@
             <v>合肥</v>
           </cell>
           <cell r="B19">
-            <v>2.81</v>
+            <v>0.5125607277059735</v>
           </cell>
           <cell r="C19">
-            <v>2.8</v>
+            <v>0.48887073087984761</v>
           </cell>
           <cell r="D19">
-            <v>3.1</v>
+            <v>0.4662756598240469</v>
           </cell>
           <cell r="E19">
-            <v>2.8</v>
+            <v>0.44472490826575028</v>
+          </cell>
+          <cell r="F19">
+            <v>0.42417020889877427</v>
           </cell>
         </row>
         <row r="20">
@@ -1029,16 +1070,19 @@
             <v>长春</v>
           </cell>
           <cell r="B20">
-            <v>5.4</v>
+            <v>0.5634197354317535</v>
           </cell>
           <cell r="C20">
-            <v>3.2</v>
+            <v>0.52666853937180313</v>
           </cell>
           <cell r="D20">
-            <v>3.3</v>
+            <v>0.49231457991344585</v>
           </cell>
           <cell r="E20">
-            <v>2.5</v>
+            <v>0.4602014881778389</v>
+          </cell>
+          <cell r="F20">
+            <v>0.43018309504124747</v>
           </cell>
         </row>
         <row r="21">
@@ -1046,16 +1090,19 @@
             <v>沈阳</v>
           </cell>
           <cell r="B21">
-            <v>3.14</v>
+            <v>0.61485537750382757</v>
           </cell>
           <cell r="C21">
-            <v>3.1</v>
+            <v>0.57084658561422097</v>
           </cell>
           <cell r="D21">
-            <v>3.1</v>
+            <v>0.52998776009791926</v>
           </cell>
           <cell r="E21">
-            <v>2.9</v>
+            <v>0.49205343945673302</v>
+          </cell>
+          <cell r="F21">
+            <v>0.45683429978923995</v>
           </cell>
         </row>
         <row r="22">
@@ -1063,16 +1110,19 @@
             <v>长沙</v>
           </cell>
           <cell r="B22">
-            <v>1.5</v>
+            <v>0.51686497402755904</v>
           </cell>
           <cell r="C22">
-            <v>1.7</v>
+            <v>0.49284418188523366</v>
           </cell>
           <cell r="D22">
-            <v>3.3</v>
+            <v>0.46993973247096865</v>
           </cell>
           <cell r="E22">
-            <v>2.6</v>
+            <v>0.4480997448526492</v>
+          </cell>
+          <cell r="F22">
+            <v>0.42727474921353548</v>
           </cell>
         </row>
         <row r="23">
@@ -1080,16 +1130,19 @@
             <v>福州</v>
           </cell>
           <cell r="B23">
-            <v>3.16</v>
+            <v>0.61755442367358981</v>
           </cell>
           <cell r="C23">
-            <v>3.2</v>
+            <v>0.58046071287496226</v>
           </cell>
           <cell r="D23">
-            <v>3</v>
+            <v>0.54559505409582687</v>
           </cell>
           <cell r="E23">
-            <v>2.2000000000000002</v>
+            <v>0.51282361829361267</v>
+          </cell>
+          <cell r="F23">
+            <v>0.48202061493314541</v>
           </cell>
         </row>
         <row r="24">
@@ -1097,16 +1150,19 @@
             <v>南京</v>
           </cell>
           <cell r="B24">
-            <v>2.65</v>
+            <v>0.53491018883871444</v>
           </cell>
           <cell r="C24">
-            <v>1.71</v>
+            <v>0.49860946661982486</v>
           </cell>
           <cell r="D24">
-            <v>1.7</v>
+            <v>0.46477222791855871</v>
           </cell>
           <cell r="E24">
-            <v>1.8</v>
+            <v>0.4332312928368135</v>
+          </cell>
+          <cell r="F24">
+            <v>0.40383082684093874</v>
           </cell>
         </row>
         <row r="25">
@@ -1114,16 +1170,19 @@
             <v>济南</v>
           </cell>
           <cell r="B25">
-            <v>2.0299999999999998</v>
+            <v>0.65336966516107942</v>
           </cell>
           <cell r="C25">
-            <v>2</v>
+            <v>0.61150726006920586</v>
           </cell>
           <cell r="D25">
-            <v>2</v>
+            <v>0.57232704402515722</v>
           </cell>
           <cell r="E25">
-            <v>2</v>
+            <v>0.53565716502777661</v>
+          </cell>
+          <cell r="F25">
+            <v>0.50133678189944597</v>
           </cell>
         </row>
         <row r="26">
@@ -1131,16 +1190,19 @@
             <v>宁波</v>
           </cell>
           <cell r="B26">
-            <v>1.8</v>
+            <v>0.48570271686961503</v>
           </cell>
           <cell r="C26">
-            <v>2.2999999999999998</v>
+            <v>0.46026660425885968</v>
           </cell>
           <cell r="D26">
-            <v>2.2000000000000002</v>
+            <v>0.43616257360333194</v>
           </cell>
           <cell r="E26">
-            <v>1.6</v>
+            <v>0.4133208641513561</v>
+          </cell>
+          <cell r="F26">
+            <v>0.39167536850190343</v>
           </cell>
         </row>
         <row r="27">
@@ -1148,16 +1210,19 @@
             <v>大连</v>
           </cell>
           <cell r="B27">
-            <v>2.4</v>
+            <v>0.66897518191739946</v>
           </cell>
           <cell r="C27">
-            <v>3.2</v>
+            <v>0.61823253288374369</v>
           </cell>
           <cell r="D27">
-            <v>3.4</v>
+            <v>0.57133878064110621</v>
           </cell>
           <cell r="E27">
-            <v>2.6</v>
+            <v>0.52800198129633191</v>
+          </cell>
+          <cell r="F27">
+            <v>0.48795233528524445</v>
           </cell>
         </row>
         <row r="28">
@@ -1165,16 +1230,19 @@
             <v>昆明</v>
           </cell>
           <cell r="B28">
-            <v>3.86</v>
+            <v>0.44024007727035896</v>
           </cell>
           <cell r="C28">
-            <v>3.9</v>
+            <v>0.4279635950838831</v>
           </cell>
           <cell r="D28">
-            <v>4.2</v>
+            <v>0.41602945341263092</v>
           </cell>
           <cell r="E28">
-            <v>3.4</v>
+            <v>0.40442810578990457</v>
+          </cell>
+          <cell r="F28">
+            <v>0.3931502719606349</v>
           </cell>
         </row>
         <row r="29">
@@ -1182,16 +1250,19 @@
             <v>南昌</v>
           </cell>
           <cell r="B29">
-            <v>3</v>
+            <v>0.50932709617598004</v>
           </cell>
           <cell r="C29">
-            <v>3.1</v>
+            <v>0.49419310624716417</v>
           </cell>
           <cell r="D29">
-            <v>2.9</v>
+            <v>0.47950880307737825</v>
           </cell>
           <cell r="E29">
-            <v>2.34</v>
+            <v>0.46526082481147402</v>
+          </cell>
+          <cell r="F29">
+            <v>0.45143620662438949</v>
           </cell>
         </row>
         <row r="30">
@@ -1199,16 +1270,19 @@
             <v>深圳</v>
           </cell>
           <cell r="B30">
-            <v>3.1</v>
+            <v>0.29451206268482782</v>
           </cell>
           <cell r="C30">
-            <v>2.2000000000000002</v>
+            <v>0.27532457265706323</v>
           </cell>
           <cell r="D30">
-            <v>2.5</v>
+            <v>0.25738714950333208</v>
           </cell>
           <cell r="E30">
-            <v>2.2000000000000002</v>
+            <v>0.24061835124308917</v>
+          </cell>
+          <cell r="F30">
+            <v>0.22494204184888053</v>
           </cell>
         </row>
       </sheetData>
@@ -1225,24 +1299,35 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>地区</v>
+          </cell>
+          <cell r="B4">
+            <v>2022</v>
+          </cell>
+          <cell r="C4">
+            <v>2021</v>
+          </cell>
+          <cell r="D4">
+            <v>2020</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="A5" t="str">
             <v>重庆</v>
           </cell>
           <cell r="B5">
-            <v>0.66026784061783694</v>
+            <v>5.4</v>
           </cell>
           <cell r="C5">
-            <v>0.63317833397264434</v>
+            <v>2.9</v>
           </cell>
           <cell r="D5">
-            <v>0.60720025715204118</v>
+            <v>4.5</v>
           </cell>
           <cell r="E5">
-            <v>0.58228801034975675</v>
-          </cell>
-          <cell r="F5">
-            <v>0.55839786463097474</v>
+            <v>2.6</v>
           </cell>
         </row>
         <row r="6">
@@ -1250,19 +1335,16 @@
             <v>成都</v>
           </cell>
           <cell r="B6">
-            <v>0.50846458588252408</v>
+            <v>2</v>
           </cell>
           <cell r="C6">
-            <v>0.48086157877130337</v>
+            <v>2.9</v>
           </cell>
           <cell r="D6">
-            <v>0.45475705557171958</v>
+            <v>3</v>
           </cell>
           <cell r="E6">
-            <v>0.43006966811672781</v>
-          </cell>
-          <cell r="F6">
-            <v>0.40672248438564862</v>
+            <v>3.3</v>
           </cell>
         </row>
         <row r="7">
@@ -1270,19 +1352,16 @@
             <v>上海</v>
           </cell>
           <cell r="B7">
-            <v>0.57942651502916998</v>
+            <v>4.5</v>
           </cell>
           <cell r="C7">
-            <v>0.53663623395121951</v>
+            <v>2.7</v>
           </cell>
           <cell r="D7">
-            <v>0.49700598802395218</v>
+            <v>3.7</v>
           </cell>
           <cell r="E7">
-            <v>0.46030241065331945</v>
-          </cell>
-          <cell r="F7">
-            <v>0.42630936922040863</v>
+            <v>3.6</v>
           </cell>
         </row>
         <row r="8">
@@ -1290,19 +1369,16 @@
             <v>北京</v>
           </cell>
           <cell r="B8">
-            <v>0.53831422971604925</v>
+            <v>4.7</v>
           </cell>
           <cell r="C8">
-            <v>0.49753990759580885</v>
+            <v>3.2</v>
           </cell>
           <cell r="D8">
-            <v>0.45985401459854014</v>
+            <v>2.6</v>
           </cell>
           <cell r="E8">
-            <v>0.42502261931958396</v>
-          </cell>
-          <cell r="F8">
-            <v>0.39282950936284683</v>
+            <v>1.3</v>
           </cell>
         </row>
         <row r="9">
@@ -1310,19 +1386,16 @@
             <v>天津</v>
           </cell>
           <cell r="B9">
-            <v>0.64595037423850021</v>
+            <v>5.8</v>
           </cell>
           <cell r="C9">
-            <v>0.59144818449347503</v>
+            <v>3.7</v>
           </cell>
           <cell r="D9">
-            <v>0.54154462771697243</v>
+            <v>3.6</v>
           </cell>
           <cell r="E9">
-            <v>0.49585169334871793</v>
-          </cell>
-          <cell r="F9">
-            <v>0.45401410929569652</v>
+            <v>3.5</v>
           </cell>
         </row>
         <row r="10">
@@ -1330,19 +1403,16 @@
             <v>西安</v>
           </cell>
           <cell r="B10">
-            <v>0.50468888439587345</v>
+            <v>3.6</v>
           </cell>
           <cell r="C10">
-            <v>0.48364888528612254</v>
+            <v>3.6</v>
           </cell>
           <cell r="D10">
-            <v>0.46348602370847364</v>
+            <v>3.6</v>
           </cell>
           <cell r="E10">
-            <v>0.44416373263427789</v>
-          </cell>
-          <cell r="F10">
-            <v>0.42564696947949721</v>
+            <v>3.3</v>
           </cell>
         </row>
         <row r="11">
@@ -1350,19 +1420,16 @@
             <v>石家庄</v>
           </cell>
           <cell r="B11">
-            <v>0.69658345034776881</v>
+            <v>3.23</v>
           </cell>
           <cell r="C11">
-            <v>0.65021976679668769</v>
+            <v>3.4</v>
           </cell>
           <cell r="D11">
-            <v>0.60694198939418298</v>
+            <v>3.8</v>
           </cell>
           <cell r="E11">
-            <v>0.56654472426236502</v>
-          </cell>
-          <cell r="F11">
-            <v>0.52883624827126741</v>
+            <v>3.2</v>
           </cell>
         </row>
         <row r="12">
@@ -1370,19 +1437,16 @@
             <v>哈尔滨</v>
           </cell>
           <cell r="B12">
-            <v>0.55481434892243264</v>
+            <v>3.45</v>
           </cell>
           <cell r="C12">
-            <v>0.5163778106413982</v>
+            <v>3.4</v>
           </cell>
           <cell r="D12">
-            <v>0.4806040864672787</v>
+            <v>3.5</v>
           </cell>
           <cell r="E12">
-            <v>0.44730870143731455</v>
-          </cell>
-          <cell r="F12">
-            <v>0.41631996068173105</v>
+            <v>3.5</v>
           </cell>
         </row>
         <row r="13">
@@ -1390,19 +1454,16 @@
             <v>广州</v>
           </cell>
           <cell r="B13">
-            <v>0.36845793982302522</v>
+            <v>2.5299999999999998</v>
           </cell>
           <cell r="C13">
-            <v>0.35307263840676756</v>
+            <v>2.2000000000000002</v>
           </cell>
           <cell r="D13">
-            <v>0.33832976445396146</v>
+            <v>2.5</v>
           </cell>
           <cell r="E13">
-            <v>0.32420249281281915</v>
-          </cell>
-          <cell r="F13">
-            <v>0.31066511844052824</v>
+            <v>2.2000000000000002</v>
           </cell>
         </row>
         <row r="14">
@@ -1410,19 +1471,16 @@
             <v>武汉</v>
           </cell>
           <cell r="B14">
-            <v>0.49707357370312399</v>
+            <v>2.6</v>
           </cell>
           <cell r="C14">
-            <v>0.46463249920678407</v>
+            <v>2.9</v>
           </cell>
           <cell r="D14">
-            <v>0.43430866322432587</v>
+            <v>3</v>
           </cell>
           <cell r="E14">
-            <v>0.40596388602544575</v>
-          </cell>
-          <cell r="F14">
-            <v>0.37946900605976719</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="15">
@@ -1430,19 +1488,16 @@
             <v>郑州</v>
           </cell>
           <cell r="B15">
-            <v>0.51133100456538461</v>
+            <v>2.58</v>
           </cell>
           <cell r="C15">
-            <v>0.48929737175766413</v>
+            <v>2.8</v>
           </cell>
           <cell r="D15">
-            <v>0.46821318455439731</v>
+            <v>2</v>
           </cell>
           <cell r="E15">
-            <v>0.44803753063923168</v>
-          </cell>
-          <cell r="F15">
-            <v>0.42873126063791733</v>
+            <v>1.8</v>
           </cell>
         </row>
         <row r="16">
@@ -1450,19 +1505,16 @@
             <v>青岛</v>
           </cell>
           <cell r="B16">
-            <v>0.62327094867872723</v>
+            <v>2.74</v>
           </cell>
           <cell r="C16">
-            <v>0.58812881973622011</v>
+            <v>2.7</v>
           </cell>
           <cell r="D16">
-            <v>0.55496812315347532</v>
+            <v>3</v>
           </cell>
           <cell r="E16">
-            <v>0.52367713905709745</v>
-          </cell>
-          <cell r="F16">
-            <v>0.49415044671887676</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="17">
@@ -1470,19 +1522,16 @@
             <v>杭州</v>
           </cell>
           <cell r="B17">
-            <v>0.4716822384449747</v>
+            <v>2.2999999999999998</v>
           </cell>
           <cell r="C17">
-            <v>0.44832618419824821</v>
+            <v>2.2999999999999998</v>
           </cell>
           <cell r="D17">
-            <v>0.426126640045636</v>
+            <v>2.4</v>
           </cell>
           <cell r="E17">
-            <v>0.40502633965337859</v>
-          </cell>
-          <cell r="F17">
-            <v>0.38497085231621669</v>
+            <v>1.8</v>
           </cell>
         </row>
         <row r="18">
@@ -1490,19 +1539,16 @@
             <v>南宁</v>
           </cell>
           <cell r="B18">
-            <v>0.58514387024589909</v>
+            <v>3.1</v>
           </cell>
           <cell r="C18">
-            <v>0.56329287772773595</v>
+            <v>2.8</v>
           </cell>
           <cell r="D18">
-            <v>0.54225786551511401</v>
+            <v>3.1</v>
           </cell>
           <cell r="E18">
-            <v>0.52200836250433058</v>
-          </cell>
-          <cell r="F18">
-            <v>0.50251503547228404</v>
+            <v>2.7</v>
           </cell>
         </row>
         <row r="19">
@@ -1510,19 +1556,16 @@
             <v>合肥</v>
           </cell>
           <cell r="B19">
-            <v>0.5125607277059735</v>
+            <v>2.81</v>
           </cell>
           <cell r="C19">
-            <v>0.48887073087984761</v>
+            <v>2.8</v>
           </cell>
           <cell r="D19">
-            <v>0.4662756598240469</v>
+            <v>3.1</v>
           </cell>
           <cell r="E19">
-            <v>0.44472490826575028</v>
-          </cell>
-          <cell r="F19">
-            <v>0.42417020889877427</v>
+            <v>2.8</v>
           </cell>
         </row>
         <row r="20">
@@ -1530,19 +1573,16 @@
             <v>长春</v>
           </cell>
           <cell r="B20">
-            <v>0.5634197354317535</v>
+            <v>5.4</v>
           </cell>
           <cell r="C20">
-            <v>0.52666853937180313</v>
+            <v>3.2</v>
           </cell>
           <cell r="D20">
-            <v>0.49231457991344585</v>
+            <v>3.3</v>
           </cell>
           <cell r="E20">
-            <v>0.4602014881778389</v>
-          </cell>
-          <cell r="F20">
-            <v>0.43018309504124747</v>
+            <v>2.5</v>
           </cell>
         </row>
         <row r="21">
@@ -1550,19 +1590,16 @@
             <v>沈阳</v>
           </cell>
           <cell r="B21">
-            <v>0.61485537750382757</v>
+            <v>3.14</v>
           </cell>
           <cell r="C21">
-            <v>0.57084658561422097</v>
+            <v>3.1</v>
           </cell>
           <cell r="D21">
-            <v>0.52998776009791926</v>
+            <v>3.1</v>
           </cell>
           <cell r="E21">
-            <v>0.49205343945673302</v>
-          </cell>
-          <cell r="F21">
-            <v>0.45683429978923995</v>
+            <v>2.9</v>
           </cell>
         </row>
         <row r="22">
@@ -1570,19 +1607,16 @@
             <v>长沙</v>
           </cell>
           <cell r="B22">
-            <v>0.51686497402755904</v>
+            <v>1.5</v>
           </cell>
           <cell r="C22">
-            <v>0.49284418188523366</v>
+            <v>1.7</v>
           </cell>
           <cell r="D22">
-            <v>0.46993973247096865</v>
+            <v>3.3</v>
           </cell>
           <cell r="E22">
-            <v>0.4480997448526492</v>
-          </cell>
-          <cell r="F22">
-            <v>0.42727474921353548</v>
+            <v>2.6</v>
           </cell>
         </row>
         <row r="23">
@@ -1590,19 +1624,16 @@
             <v>福州</v>
           </cell>
           <cell r="B23">
-            <v>0.61755442367358981</v>
+            <v>3.16</v>
           </cell>
           <cell r="C23">
-            <v>0.58046071287496226</v>
+            <v>3.2</v>
           </cell>
           <cell r="D23">
-            <v>0.54559505409582687</v>
+            <v>3</v>
           </cell>
           <cell r="E23">
-            <v>0.51282361829361267</v>
-          </cell>
-          <cell r="F23">
-            <v>0.48202061493314541</v>
+            <v>2.2000000000000002</v>
           </cell>
         </row>
         <row r="24">
@@ -1610,19 +1641,16 @@
             <v>南京</v>
           </cell>
           <cell r="B24">
-            <v>0.53491018883871444</v>
+            <v>2.65</v>
           </cell>
           <cell r="C24">
-            <v>0.49860946661982486</v>
+            <v>1.71</v>
           </cell>
           <cell r="D24">
-            <v>0.46477222791855871</v>
+            <v>1.7</v>
           </cell>
           <cell r="E24">
-            <v>0.4332312928368135</v>
-          </cell>
-          <cell r="F24">
-            <v>0.40383082684093874</v>
+            <v>1.8</v>
           </cell>
         </row>
         <row r="25">
@@ -1630,19 +1658,16 @@
             <v>济南</v>
           </cell>
           <cell r="B25">
-            <v>0.65336966516107942</v>
+            <v>2.0299999999999998</v>
           </cell>
           <cell r="C25">
-            <v>0.61150726006920586</v>
+            <v>2</v>
           </cell>
           <cell r="D25">
-            <v>0.57232704402515722</v>
+            <v>2</v>
           </cell>
           <cell r="E25">
-            <v>0.53565716502777661</v>
-          </cell>
-          <cell r="F25">
-            <v>0.50133678189944597</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="26">
@@ -1650,19 +1675,16 @@
             <v>宁波</v>
           </cell>
           <cell r="B26">
-            <v>0.48570271686961503</v>
+            <v>1.8</v>
           </cell>
           <cell r="C26">
-            <v>0.46026660425885968</v>
+            <v>2.2999999999999998</v>
           </cell>
           <cell r="D26">
-            <v>0.43616257360333194</v>
+            <v>2.2000000000000002</v>
           </cell>
           <cell r="E26">
-            <v>0.4133208641513561</v>
-          </cell>
-          <cell r="F26">
-            <v>0.39167536850190343</v>
+            <v>1.6</v>
           </cell>
         </row>
         <row r="27">
@@ -1670,19 +1692,16 @@
             <v>大连</v>
           </cell>
           <cell r="B27">
-            <v>0.66897518191739946</v>
+            <v>2.4</v>
           </cell>
           <cell r="C27">
-            <v>0.61823253288374369</v>
+            <v>3.2</v>
           </cell>
           <cell r="D27">
-            <v>0.57133878064110621</v>
+            <v>3.4</v>
           </cell>
           <cell r="E27">
-            <v>0.52800198129633191</v>
-          </cell>
-          <cell r="F27">
-            <v>0.48795233528524445</v>
+            <v>2.6</v>
           </cell>
         </row>
         <row r="28">
@@ -1690,19 +1709,16 @@
             <v>昆明</v>
           </cell>
           <cell r="B28">
-            <v>0.44024007727035896</v>
+            <v>3.86</v>
           </cell>
           <cell r="C28">
-            <v>0.4279635950838831</v>
+            <v>3.9</v>
           </cell>
           <cell r="D28">
-            <v>0.41602945341263092</v>
+            <v>4.2</v>
           </cell>
           <cell r="E28">
-            <v>0.40442810578990457</v>
-          </cell>
-          <cell r="F28">
-            <v>0.3931502719606349</v>
+            <v>3.4</v>
           </cell>
         </row>
         <row r="29">
@@ -1710,19 +1726,16 @@
             <v>南昌</v>
           </cell>
           <cell r="B29">
-            <v>0.50932709617598004</v>
+            <v>3</v>
           </cell>
           <cell r="C29">
-            <v>0.49419310624716417</v>
+            <v>3.1</v>
           </cell>
           <cell r="D29">
-            <v>0.47950880307737825</v>
+            <v>2.9</v>
           </cell>
           <cell r="E29">
-            <v>0.46526082481147402</v>
-          </cell>
-          <cell r="F29">
-            <v>0.45143620662438949</v>
+            <v>2.34</v>
           </cell>
         </row>
         <row r="30">
@@ -1730,22 +1743,737 @@
             <v>深圳</v>
           </cell>
           <cell r="B30">
-            <v>0.29451206268482782</v>
+            <v>3.1</v>
           </cell>
           <cell r="C30">
-            <v>0.27532457265706323</v>
+            <v>2.2000000000000002</v>
           </cell>
           <cell r="D30">
-            <v>0.25738714950333208</v>
+            <v>2.5</v>
           </cell>
           <cell r="E30">
-            <v>0.24061835124308917</v>
+            <v>2.2000000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="主要城市年度数据"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>北京</v>
+          </cell>
+          <cell r="B5">
+            <v>0.2289382980283349</v>
+          </cell>
+          <cell r="C5">
+            <v>0.23295319199618866</v>
+          </cell>
+          <cell r="D5">
+            <v>0.23069190275961216</v>
+          </cell>
+          <cell r="E5">
+            <v>0.22189313241534597</v>
+          </cell>
+          <cell r="F5">
+            <v>0.24972931668479678</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>天津</v>
+          </cell>
+          <cell r="B6">
+            <v>0.12203800371830895</v>
+          </cell>
+          <cell r="C6">
+            <v>0.12771999906375078</v>
+          </cell>
+          <cell r="D6">
+            <v>0.13783447417548225</v>
+          </cell>
+          <cell r="E6">
+            <v>0.13819644809232809</v>
+          </cell>
+          <cell r="F6">
+            <v>0.15321953988704043</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>石家庄</v>
+          </cell>
+          <cell r="B7">
+            <v>0.112599294463714</v>
+          </cell>
+          <cell r="C7">
+            <v>0.11734972830028677</v>
+          </cell>
+          <cell r="D7">
+            <v>0.11656651349122187</v>
+          </cell>
+          <cell r="E7">
+            <v>0.11603272137821842</v>
+          </cell>
+          <cell r="F7">
+            <v>0.13844196820832336</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>太原</v>
+          </cell>
+          <cell r="B8">
+            <v>9.9901979071888983E-2</v>
+          </cell>
+          <cell r="C8">
+            <v>0.10596438291929582</v>
+          </cell>
+          <cell r="D8">
+            <v>0.12199661590524535</v>
+          </cell>
+          <cell r="E8">
+            <v>0.13439536567704563</v>
+          </cell>
+          <cell r="F8">
+            <v>0.13412298175069595</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>呼和浩特</v>
+          </cell>
+          <cell r="B9">
+            <v>0.11473127316090673</v>
+          </cell>
+          <cell r="C9">
+            <v>0.11490143906080209</v>
+          </cell>
+          <cell r="D9">
+            <v>0.12357480262202816</v>
+          </cell>
+          <cell r="E9">
+            <v>0.1192438023898698</v>
+          </cell>
+          <cell r="F9">
+            <v>0.11558463025480829</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>沈阳</v>
+          </cell>
+          <cell r="B10">
+            <v>0.12144520247482045</v>
+          </cell>
+          <cell r="C10">
+            <v>0.11813419461567246</v>
+          </cell>
+          <cell r="D10">
+            <v>0.12112649622554948</v>
+          </cell>
+          <cell r="E10">
+            <v>0.11689244663382595</v>
+          </cell>
+          <cell r="F10">
+            <v>0.10576857933152181</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>大连</v>
+          </cell>
+          <cell r="B11">
+            <v>0.13125892674318601</v>
+          </cell>
+          <cell r="C11">
+            <v>0.13111090418102245</v>
+          </cell>
+          <cell r="D11">
+            <v>0.13663320244504715</v>
+          </cell>
+          <cell r="E11">
+            <v>0.12616039060371745</v>
+          </cell>
+          <cell r="F11">
+            <v>0.13052048132249519</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>长春</v>
+          </cell>
+          <cell r="B12">
+            <v>8.1093277978233833E-2</v>
+          </cell>
+          <cell r="C12">
+            <v>8.466798721917522E-2</v>
+          </cell>
+          <cell r="D12">
+            <v>9.825090145847909E-2</v>
+          </cell>
+          <cell r="E12">
+            <v>9.912354397039122E-2</v>
+          </cell>
+          <cell r="F12">
+            <v>0.1006136151694125</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>哈尔滨</v>
+          </cell>
+          <cell r="B13">
+            <v>9.2297358475167401E-2</v>
+          </cell>
+          <cell r="C13">
+            <v>9.7982966278589531E-2</v>
+          </cell>
+          <cell r="D13">
+            <v>0.11156186612576065</v>
+          </cell>
+          <cell r="E13">
+            <v>0.11871093038781332</v>
+          </cell>
+          <cell r="F13">
+            <v>0.12445026542754037</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>上海</v>
+          </cell>
+          <cell r="B14">
+            <v>0.21060124583964399</v>
+          </cell>
+          <cell r="C14">
+            <v>0.2089945065875044</v>
+          </cell>
+          <cell r="D14">
+            <v>0.21033558891216983</v>
+          </cell>
+          <cell r="E14">
+            <v>0.21694383680784335</v>
+          </cell>
+          <cell r="F14">
+            <v>0.20268920081408279</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>南京</v>
+          </cell>
+          <cell r="B15">
+            <v>0.18996873714379908</v>
+          </cell>
+          <cell r="C15">
+            <v>0.18739393776788049</v>
+          </cell>
+          <cell r="D15">
+            <v>0.1824209267780153</v>
+          </cell>
+          <cell r="E15">
+            <v>0.14990162416573435</v>
+          </cell>
+          <cell r="F15">
+            <v>0.17743902548820126</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>杭州</v>
+          </cell>
+          <cell r="B16">
+            <v>0.1899538596821575</v>
+          </cell>
+          <cell r="C16">
+            <v>0.19706725074609088</v>
+          </cell>
+          <cell r="D16">
+            <v>0.20764365903107695</v>
+          </cell>
+          <cell r="E16">
+            <v>0.22045084283671909</v>
+          </cell>
+          <cell r="F16">
+            <v>0.22828627388505188</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>宁波</v>
+          </cell>
+          <cell r="B17">
+            <v>0.16865286529807183</v>
+          </cell>
+          <cell r="C17">
+            <v>0.16653675665887208</v>
+          </cell>
+          <cell r="D17">
+            <v>0.1586632640224287</v>
+          </cell>
+          <cell r="E17">
+            <v>0.14390591460884936</v>
+          </cell>
+          <cell r="F17">
+            <v>0.15833452235524065</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>合肥</v>
+          </cell>
+          <cell r="B18">
+            <v>0.12530206186344961</v>
+          </cell>
+          <cell r="C18">
+            <v>0.12933412135539796</v>
+          </cell>
+          <cell r="D18">
+            <v>0.14563338357915626</v>
+          </cell>
+          <cell r="E18">
+            <v>0.14803060237925092</v>
+          </cell>
+          <cell r="F18">
+            <v>0.14680225112893441</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>福州</v>
+          </cell>
+          <cell r="B19">
+            <v>0.13442141783087155</v>
+          </cell>
+          <cell r="C19">
+            <v>0.14136295118049069</v>
+          </cell>
+          <cell r="D19">
+            <v>0.14900806401459399</v>
+          </cell>
+          <cell r="E19">
+            <v>0.15947926971849988</v>
+          </cell>
+          <cell r="F19">
+            <v>0.17290363691012925</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>厦门</v>
+          </cell>
+          <cell r="B20">
+            <v>0.23744927436733096</v>
+          </cell>
+          <cell r="C20">
+            <v>0.26300812667910917</v>
+          </cell>
+          <cell r="D20">
+            <v>0.31117231976712051</v>
+          </cell>
+          <cell r="E20">
+            <v>0.34598431155974185</v>
+          </cell>
+          <cell r="F20">
+            <v>0.39587898926801773</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>南昌</v>
+          </cell>
+          <cell r="B21">
+            <v>0.10449389076382461</v>
+          </cell>
+          <cell r="C21">
+            <v>0.1036009560753889</v>
+          </cell>
+          <cell r="D21">
+            <v>0.1158743361699405</v>
+          </cell>
+          <cell r="E21">
+            <v>0.10574205945518254</v>
+          </cell>
+          <cell r="F21">
+            <v>0.10010487226630541</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>济南</v>
+          </cell>
+          <cell r="B22">
+            <v>0.10620347370202816</v>
+          </cell>
+          <cell r="C22">
+            <v>0.11104029519057403</v>
+          </cell>
+          <cell r="D22">
+            <v>0.11331199084794863</v>
+          </cell>
+          <cell r="E22">
+            <v>0.11876571928464207</v>
+          </cell>
+          <cell r="F22">
+            <v>0.13269304208355612</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>青岛</v>
+          </cell>
+          <cell r="B23">
+            <v>0.10773339100203695</v>
+          </cell>
+          <cell r="C23">
+            <v>0.11290753607696419</v>
+          </cell>
+          <cell r="D23">
+            <v>0.12106962924686733</v>
+          </cell>
+          <cell r="E23">
+            <v>0.13259636363636362</v>
+          </cell>
+          <cell r="F23">
+            <v>0.1362113606340819</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>郑州</v>
+          </cell>
+          <cell r="B24">
+            <v>0.10018583179299408</v>
+          </cell>
+          <cell r="C24">
+            <v>0.1002957505318321</v>
+          </cell>
+          <cell r="D24">
+            <v>0.11004426361441473</v>
+          </cell>
+          <cell r="E24">
+            <v>0.10600931500624787</v>
+          </cell>
+          <cell r="F24">
+            <v>0.10073663278287612</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>武汉</v>
+          </cell>
+          <cell r="B25">
+            <v>0.12376806171144586</v>
+          </cell>
+          <cell r="C25">
+            <v>0.12749161239392146</v>
+          </cell>
+          <cell r="D25">
+            <v>0.14106471555346173</v>
+          </cell>
+          <cell r="E25">
+            <v>0.14110135348775538</v>
+          </cell>
+          <cell r="F25">
+            <v>0.14354025382951985</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>长沙</v>
+          </cell>
+          <cell r="B26">
+            <v>8.9322837960416082E-2</v>
+          </cell>
+          <cell r="C26">
+            <v>8.814076041984234E-2</v>
+          </cell>
+          <cell r="D26">
+            <v>8.6285427497324887E-2</v>
+          </cell>
+          <cell r="E26">
+            <v>8.3557622969967188E-2</v>
+          </cell>
+          <cell r="F26">
+            <v>8.3566827093136675E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>广州</v>
+          </cell>
+          <cell r="B27">
+            <v>0.2169629552931836</v>
+          </cell>
+          <cell r="C27">
+            <v>0.21193723663783545</v>
+          </cell>
+          <cell r="D27">
+            <v>0.2006245467596087</v>
+          </cell>
+          <cell r="E27">
+            <v>0.19445659039012778</v>
+          </cell>
+          <cell r="F27">
+            <v>0.19297186133638533</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>深圳</v>
+          </cell>
+          <cell r="B28">
+            <v>0.37425367472814081</v>
+          </cell>
+          <cell r="C28">
+            <v>0.39598747774213661</v>
+          </cell>
+          <cell r="D28">
+            <v>0.40767090277976992</v>
+          </cell>
+          <cell r="E28">
+            <v>0.43652402608076268</v>
+          </cell>
+          <cell r="F28">
+            <v>0.49629850772990541</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>南宁</v>
+          </cell>
+          <cell r="B29">
+            <v>8.5712660429552681E-2</v>
+          </cell>
+          <cell r="C29">
+            <v>8.6979313290555554E-2</v>
+          </cell>
+          <cell r="D29">
+            <v>9.476817849380402E-2</v>
+          </cell>
+          <cell r="E29">
+            <v>9.4234277800980371E-2</v>
+          </cell>
+          <cell r="F29">
+            <v>9.2235896083976421E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>海口</v>
+          </cell>
+          <cell r="B30">
+            <v>0.16518999356552519</v>
+          </cell>
+          <cell r="C30">
+            <v>0.16472478907191643</v>
+          </cell>
+          <cell r="D30">
+            <v>0.17838679673811944</v>
+          </cell>
+          <cell r="E30">
+            <v>0.18282210030427273</v>
           </cell>
           <cell r="F30">
-            <v>0.22494204184888053</v>
+            <v>0.16287703524319866</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>重庆</v>
+          </cell>
+          <cell r="B31">
+            <v>8.8205293570617946E-2</v>
+          </cell>
+          <cell r="C31">
+            <v>9.0477347942336819E-2</v>
+          </cell>
+          <cell r="D31">
+            <v>9.0638341126245178E-2</v>
+          </cell>
+          <cell r="E31">
+            <v>9.6495530240542166E-2</v>
+          </cell>
+          <cell r="F31">
+            <v>0.10016608776478646</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>成都</v>
+          </cell>
+          <cell r="B32">
+            <v>0.13418698506506063</v>
+          </cell>
+          <cell r="C32">
+            <v>0.12922803966518229</v>
+          </cell>
+          <cell r="D32">
+            <v>0.12665728535462317</v>
+          </cell>
+          <cell r="E32">
+            <v>0.12027399788759113</v>
+          </cell>
+          <cell r="F32">
+            <v>0.11115837793003147</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>贵阳</v>
+          </cell>
+          <cell r="B33">
+            <v>8.0134610423188521E-2</v>
+          </cell>
+          <cell r="C33">
+            <v>8.4896598485704605E-2</v>
+          </cell>
+          <cell r="D33">
+            <v>8.9925266868966597E-2</v>
+          </cell>
+          <cell r="E33">
+            <v>0.10576362655153805</v>
+          </cell>
+          <cell r="F33">
+            <v>0.10694757211102375</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>昆明</v>
+          </cell>
+          <cell r="B34">
+            <v>0.1048922609466726</v>
+          </cell>
+          <cell r="C34">
+            <v>0.11082899694957832</v>
+          </cell>
+          <cell r="D34">
+            <v>0.11936972161401314</v>
+          </cell>
+          <cell r="E34">
+            <v>0.12888170694109266</v>
+          </cell>
+          <cell r="F34">
+            <v>0.13813165862958393</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>西安</v>
+          </cell>
+          <cell r="B35">
+            <v>0.13635858453879776</v>
+          </cell>
+          <cell r="C35">
+            <v>0.13169917109384463</v>
+          </cell>
+          <cell r="D35">
+            <v>0.13168460086429098</v>
+          </cell>
+          <cell r="E35">
+            <v>0.12003055736215636</v>
+          </cell>
+          <cell r="F35">
+            <v>0.11460017216642755</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>兰州</v>
+          </cell>
+          <cell r="B36">
+            <v>7.9568154553999723E-2</v>
+          </cell>
+          <cell r="C36">
+            <v>8.0532683148574799E-2</v>
+          </cell>
+          <cell r="D36">
+            <v>8.8239368333564203E-2</v>
+          </cell>
+          <cell r="E36">
+            <v>8.2947744730917608E-2</v>
+          </cell>
+          <cell r="F36">
+            <v>8.4509144025708444E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>西宁</v>
+          </cell>
+          <cell r="B37">
+            <v>9.0859780359254197E-2</v>
+          </cell>
+          <cell r="C37">
+            <v>8.8596072609010729E-2</v>
+          </cell>
+          <cell r="D37">
+            <v>0.10010267462310281</v>
+          </cell>
+          <cell r="E37">
+            <v>9.5427022536996961E-2</v>
+          </cell>
+          <cell r="F37">
+            <v>8.0091351357780921E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>银川</v>
+          </cell>
+          <cell r="B38">
+            <v>7.3220195187256781E-2</v>
+          </cell>
+          <cell r="C38">
+            <v>7.1282881778789331E-2</v>
+          </cell>
+          <cell r="D38">
+            <v>6.9595752131979216E-2</v>
+          </cell>
+          <cell r="E38">
+            <v>6.8105627174568265E-2</v>
+          </cell>
+          <cell r="F38">
+            <v>6.4032832708984883E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>乌鲁木齐</v>
+          </cell>
+          <cell r="B39">
+            <v>6.8243796003333718E-2</v>
+          </cell>
+          <cell r="C39">
+            <v>7.2160584993335969E-2</v>
+          </cell>
+          <cell r="D39">
+            <v>8.043862752033959E-2</v>
+          </cell>
+          <cell r="E39">
+            <v>9.619856936591388E-2</v>
+          </cell>
+          <cell r="F39">
+            <v>9.0208512617746248E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2050,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2105,14 +2833,15 @@
       <c r="D2" s="2">
         <v>3403.64</v>
       </c>
-      <c r="E2" s="11">
-        <v>8.8205293570617946E-2</v>
+      <c r="E2" s="29">
+        <f>VLOOKUP(A2,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.10016608776478646</v>
       </c>
       <c r="F2" s="17">
         <v>0.03</v>
       </c>
       <c r="G2" s="21">
-        <f>VLOOKUP(A2,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A2,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.55839786463097474</v>
       </c>
       <c r="J2" s="11"/>
@@ -2130,14 +2859,15 @@
       <c r="D3" s="2">
         <v>1476.05</v>
       </c>
-      <c r="E3" s="11">
-        <v>0.13418698506506063</v>
+      <c r="E3" s="29">
+        <f>VLOOKUP(A3,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.11115837793003147</v>
       </c>
       <c r="F3" s="17">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G3" s="21">
-        <f>VLOOKUP(A3,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A3,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.40672248438564862</v>
       </c>
       <c r="J3" s="11"/>
@@ -2155,14 +2885,15 @@
       <c r="D4" s="2">
         <v>1462.38</v>
       </c>
-      <c r="E4" s="11">
-        <v>0.21060124583964399</v>
+      <c r="E4" s="29">
+        <f>VLOOKUP(A4,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.20268920081408279</v>
       </c>
       <c r="F4" s="17">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G4" s="21">
-        <f>VLOOKUP(A4,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A4,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.42630936922040863</v>
       </c>
       <c r="J4" s="11"/>
@@ -2180,14 +2911,15 @@
       <c r="D5" s="2">
         <v>1375.8</v>
       </c>
-      <c r="E5" s="11">
-        <v>0.2289382980283349</v>
+      <c r="E5" s="29">
+        <f>VLOOKUP(A5,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.24972931668479678</v>
       </c>
       <c r="F5" s="17">
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="G5" s="21">
-        <f>VLOOKUP(A5,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A5,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.39282950936284683</v>
       </c>
       <c r="J5" s="11"/>
@@ -2205,14 +2937,15 @@
       <c r="D6" s="2">
         <v>1081.6300000000001</v>
       </c>
-      <c r="E6" s="11">
-        <v>0.12203800371830895</v>
+      <c r="E6" s="29">
+        <f>VLOOKUP(A6,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.15321953988704043</v>
       </c>
       <c r="F6" s="17">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G6" s="21">
-        <f>VLOOKUP(A6,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A6,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.45401410929569652</v>
       </c>
       <c r="J6" s="11"/>
@@ -2230,14 +2963,15 @@
       <c r="D7" s="2">
         <v>986.87</v>
       </c>
-      <c r="E7" s="11">
-        <v>0.13635858453879776</v>
+      <c r="E7" s="29">
+        <f>VLOOKUP(A7,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.11460017216642755</v>
       </c>
       <c r="F7" s="17">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G7" s="21">
-        <f>VLOOKUP(A7,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A7,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.42564696947949721</v>
       </c>
       <c r="J7" s="11"/>
@@ -2255,14 +2989,15 @@
       <c r="D8" s="2">
         <v>981.6</v>
       </c>
-      <c r="E8" s="11">
-        <v>0.112599294463714</v>
+      <c r="E8" s="29">
+        <f>VLOOKUP(A8,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.13844196820832336</v>
       </c>
       <c r="F8" s="17">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G8" s="21">
-        <f>VLOOKUP(A8,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A8,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.52883624827126741</v>
       </c>
       <c r="J8" s="11"/>
@@ -2280,14 +3015,15 @@
       <c r="D9" s="2">
         <v>951.54</v>
       </c>
-      <c r="E9" s="11">
-        <v>9.2297358475167401E-2</v>
+      <c r="E9" s="29">
+        <f>VLOOKUP(A9,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.12445026542754037</v>
       </c>
       <c r="F9" s="17">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G9" s="21">
-        <f>VLOOKUP(A9,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A9,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.41631996068173105</v>
       </c>
       <c r="J9" s="11"/>
@@ -2305,14 +3041,15 @@
       <c r="D10" s="2">
         <v>927.69</v>
       </c>
-      <c r="E10" s="11">
-        <v>0.2169629552931836</v>
+      <c r="E10" s="29">
+        <f>VLOOKUP(A10,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.19297186133638533</v>
       </c>
       <c r="F10" s="17">
         <v>1.9E-2</v>
       </c>
       <c r="G10" s="21">
-        <f>VLOOKUP(A10,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A10,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.31066511844052824</v>
       </c>
       <c r="J10" s="11"/>
@@ -2330,14 +3067,15 @@
       <c r="D11" s="2">
         <v>883.73</v>
       </c>
-      <c r="E11" s="11">
-        <v>0.12376806171144586</v>
+      <c r="E11" s="29">
+        <f>VLOOKUP(A11,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.14354025382951985</v>
       </c>
       <c r="F11" s="17">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G11" s="21">
-        <f>VLOOKUP(A11,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A11,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.37946900605976719</v>
       </c>
       <c r="J11" s="11"/>
@@ -2355,14 +3093,15 @@
       <c r="D12" s="2">
         <v>863.9</v>
       </c>
-      <c r="E12" s="11">
-        <v>0.10018583179299408</v>
+      <c r="E12" s="29">
+        <f>VLOOKUP(A12,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.10073663278287612</v>
       </c>
       <c r="F12" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G12" s="21">
-        <f>VLOOKUP(A12,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A12,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.42873126063791733</v>
       </c>
       <c r="J12" s="11"/>
@@ -2380,14 +3119,15 @@
       <c r="D13" s="2">
         <v>817.79</v>
       </c>
-      <c r="E13" s="11">
-        <v>0.10773339100203695</v>
+      <c r="E13" s="29">
+        <f>VLOOKUP(A13,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.1362113606340819</v>
       </c>
       <c r="F13" s="17">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="G13" s="21">
-        <f>VLOOKUP(A13,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A13,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.49415044671887676</v>
       </c>
       <c r="J13" s="11"/>
@@ -2405,14 +3145,15 @@
       <c r="D14" s="2">
         <v>774.1</v>
       </c>
-      <c r="E14" s="11">
-        <v>0.1899538596821575</v>
+      <c r="E14" s="29">
+        <f>VLOOKUP(A14,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.22828627388505188</v>
       </c>
       <c r="F14" s="17">
         <v>1.6E-2</v>
       </c>
       <c r="G14" s="21">
-        <f>VLOOKUP(A14,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A14,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.38497085231621669</v>
       </c>
       <c r="J14" s="11"/>
@@ -2430,14 +3171,15 @@
       <c r="D15" s="2">
         <v>770.82</v>
       </c>
-      <c r="E15" s="11">
-        <v>8.5712660429552681E-2</v>
+      <c r="E15" s="29">
+        <f>VLOOKUP(A15,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>9.2235896083976421E-2</v>
       </c>
       <c r="F15" s="17">
         <v>2.7000000000000003E-2</v>
       </c>
       <c r="G15" s="21">
-        <f>VLOOKUP(A15,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A15,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.50251503547228404</v>
       </c>
       <c r="J15" s="11"/>
@@ -2455,14 +3197,15 @@
       <c r="D16" s="2">
         <v>757.96</v>
       </c>
-      <c r="E16" s="11">
-        <v>0.12530206186344961</v>
+      <c r="E16" s="29">
+        <f>VLOOKUP(A16,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.14680225112893441</v>
       </c>
       <c r="F16" s="17">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="G16" s="21">
-        <f>VLOOKUP(A16,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A16,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.42417020889877427</v>
       </c>
       <c r="J16" s="11"/>
@@ -2480,14 +3223,15 @@
       <c r="D17" s="2">
         <v>751.29</v>
       </c>
-      <c r="E17" s="11">
-        <v>8.1093277978233833E-2</v>
+      <c r="E17" s="29">
+        <f>VLOOKUP(A17,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.1006136151694125</v>
       </c>
       <c r="F17" s="17">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="G17" s="21">
-        <f>VLOOKUP(A17,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A17,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.43018309504124747</v>
       </c>
       <c r="J17" s="11"/>
@@ -2505,14 +3249,15 @@
       <c r="D18" s="2">
         <v>745.99</v>
       </c>
-      <c r="E18" s="11">
-        <v>0.12144520247482045</v>
+      <c r="E18" s="29">
+        <f>VLOOKUP(A18,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.10576857933152181</v>
       </c>
       <c r="F18" s="17">
         <v>3.1E-2</v>
       </c>
       <c r="G18" s="21">
-        <f>VLOOKUP(A18,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A18,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.45683429978923995</v>
       </c>
       <c r="J18" s="11"/>
@@ -2530,14 +3275,15 @@
       <c r="D19" s="2">
         <v>728.86</v>
       </c>
-      <c r="E19" s="11">
-        <v>8.9322837960416082E-2</v>
+      <c r="E19" s="29">
+        <f>VLOOKUP(A19,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>8.3566827093136675E-2</v>
       </c>
       <c r="F19" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G19" s="21">
-        <f>VLOOKUP(A19,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A19,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.42727474921353548</v>
       </c>
       <c r="J19" s="11"/>
@@ -2555,14 +3301,15 @@
       <c r="D20" s="2">
         <v>702.66</v>
       </c>
-      <c r="E20" s="11">
-        <v>0.13442141783087155</v>
+      <c r="E20" s="29">
+        <f>VLOOKUP(A20,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.17290363691012925</v>
       </c>
       <c r="F20" s="17">
         <v>2.4E-2</v>
       </c>
       <c r="G20" s="21">
-        <f>VLOOKUP(A20,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A20,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.48202061493314541</v>
       </c>
       <c r="J20" s="11"/>
@@ -2580,14 +3327,15 @@
       <c r="D21" s="2">
         <v>696.94</v>
       </c>
-      <c r="E21" s="11">
-        <v>0.18996873714379908</v>
+      <c r="E21" s="29">
+        <f>VLOOKUP(A21,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.17743902548820126</v>
       </c>
       <c r="F21" s="17">
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="G21" s="21">
-        <f>VLOOKUP(A21,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A21,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.40383082684093874</v>
       </c>
       <c r="J21" s="11"/>
@@ -2605,14 +3353,15 @@
       <c r="D22" s="2">
         <v>655.9</v>
       </c>
-      <c r="E22" s="11">
-        <v>0.10620347370202816</v>
+      <c r="E22" s="29">
+        <f>VLOOKUP(A22,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.13269304208355612</v>
       </c>
       <c r="F22" s="17">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G22" s="21">
-        <f>VLOOKUP(A22,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A22,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.50133678189944597</v>
       </c>
       <c r="J22" s="11"/>
@@ -2630,14 +3379,15 @@
       <c r="D23" s="2">
         <v>602.96</v>
       </c>
-      <c r="E23" s="11">
-        <v>0.16865286529807183</v>
+      <c r="E23" s="29">
+        <f>VLOOKUP(A23,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.15833452235524065</v>
       </c>
       <c r="F23" s="17">
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="G23" s="21">
-        <f>VLOOKUP(A23,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A23,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.39167536850190343</v>
       </c>
       <c r="J23" s="11"/>
@@ -2655,14 +3405,15 @@
       <c r="D24" s="2">
         <v>595.21</v>
       </c>
-      <c r="E24" s="11">
-        <v>0.13125892674318601</v>
+      <c r="E24" s="29">
+        <f>VLOOKUP(A24,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.13052048132249519</v>
       </c>
       <c r="F24" s="17">
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="G24" s="21">
-        <f>VLOOKUP(A24,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A24,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.48795233528524445</v>
       </c>
       <c r="J24" s="11"/>
@@ -2680,14 +3431,15 @@
       <c r="D25" s="2">
         <v>571.66999999999996</v>
       </c>
-      <c r="E25" s="11">
-        <v>0.1048922609466726</v>
+      <c r="E25" s="29">
+        <f>VLOOKUP(A25,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.13813165862958393</v>
       </c>
       <c r="F25" s="17">
         <v>3.0899999999999997E-2</v>
       </c>
       <c r="G25" s="21">
-        <f>VLOOKUP(A25,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A25,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.3931502719606349</v>
       </c>
       <c r="J25" s="11"/>
@@ -2705,14 +3457,15 @@
       <c r="D26" s="2">
         <v>531.88</v>
       </c>
-      <c r="E26" s="11">
-        <v>0.10449389076382461</v>
+      <c r="E26" s="29">
+        <f>VLOOKUP(A26,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.10010487226630541</v>
       </c>
       <c r="F26" s="17">
         <v>3.4799999999999998E-2</v>
       </c>
       <c r="G26" s="21">
-        <f>VLOOKUP(A26,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A26,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.45143620662438949</v>
       </c>
       <c r="J26" s="11"/>
@@ -2730,14 +3483,15 @@
       <c r="D27" s="2">
         <v>545.47249999999997</v>
       </c>
-      <c r="E27" s="11">
-        <v>0.37425367472814081</v>
+      <c r="E27" s="29">
+        <f>VLOOKUP(A27,[3]主要城市年度数据!$A$5:$F$39,6,0)</f>
+        <v>0.49629850772990541</v>
       </c>
       <c r="F27" s="17">
         <v>2.3E-2</v>
       </c>
       <c r="G27" s="21">
-        <f>VLOOKUP(A27,[2]主要城市年度数据!$A$5:$F$30,6,0)</f>
+        <f>VLOOKUP(A27,[1]主要城市年度数据!$A$5:$F$30,6,0)</f>
         <v>0.22494204184888053</v>
       </c>
       <c r="J27" s="11"/>
@@ -2855,8 +3609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2907,15 +3661,16 @@
       <c r="D2" s="2">
         <v>3416.29</v>
       </c>
-      <c r="E2" s="11">
-        <v>9.0477347942336819E-2</v>
+      <c r="E2" s="29">
+        <f>VLOOKUP(A2,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>9.6495530240542166E-2</v>
       </c>
       <c r="F2" s="21">
-        <f>(VLOOKUP(A2,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A2,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="G2" s="21">
-        <f>VLOOKUP(A2,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A2,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.58228801034975675</v>
       </c>
     </row>
@@ -2932,15 +3687,16 @@
       <c r="D3" s="2">
         <v>1500.07</v>
       </c>
-      <c r="E3" s="11">
-        <v>0.12922803966518229</v>
+      <c r="E3" s="29">
+        <f>VLOOKUP(A3,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.12027399788759113</v>
       </c>
       <c r="F3" s="21">
-        <f>(VLOOKUP(A3,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A3,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G3" s="21">
-        <f>VLOOKUP(A3,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A3,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.43006966811672781</v>
       </c>
     </row>
@@ -2957,15 +3713,16 @@
       <c r="D4" s="2">
         <v>1469.3</v>
       </c>
-      <c r="E4" s="11">
-        <v>0.2089945065875044</v>
+      <c r="E4" s="29">
+        <f>VLOOKUP(A4,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.21694383680784335</v>
       </c>
       <c r="F4" s="21">
-        <f>(VLOOKUP(A4,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A4,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="G4" s="21">
-        <f>VLOOKUP(A4,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A4,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.46030241065331945</v>
       </c>
     </row>
@@ -2982,15 +3739,16 @@
       <c r="D5" s="2">
         <v>1397.4</v>
       </c>
-      <c r="E5" s="11">
-        <v>0.23295319199618866</v>
+      <c r="E5" s="29">
+        <f>VLOOKUP(A5,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.22189313241534597</v>
       </c>
       <c r="F5" s="21">
-        <f>(VLOOKUP(A5,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A5,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="G5" s="21">
-        <f>VLOOKUP(A5,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A5,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.42502261931958396</v>
       </c>
     </row>
@@ -3007,15 +3765,16 @@
       <c r="D6" s="2">
         <v>1108.18</v>
       </c>
-      <c r="E6" s="11">
-        <v>0.12771999906375078</v>
+      <c r="E6" s="29">
+        <f>VLOOKUP(A6,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.13819644809232809</v>
       </c>
       <c r="F6" s="21">
-        <f>(VLOOKUP(A6,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A6,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G6" s="21">
-        <f>VLOOKUP(A6,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A6,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.49585169334871793</v>
       </c>
     </row>
@@ -3032,15 +3791,16 @@
       <c r="D7" s="2">
         <v>1052.3900000000001</v>
       </c>
-      <c r="E7" s="11">
-        <v>0.11734972830028677</v>
+      <c r="E7" s="29">
+        <f>VLOOKUP(A7,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.11603272137821842</v>
       </c>
       <c r="F7" s="21">
-        <f>(VLOOKUP(A7,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A7,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G7" s="21">
-        <f>VLOOKUP(A7,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A7,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.56654472426236502</v>
       </c>
     </row>
@@ -3057,15 +3817,16 @@
       <c r="D8" s="2">
         <v>956.74</v>
       </c>
-      <c r="E8" s="11">
-        <v>0.13169917109384463</v>
+      <c r="E8" s="29">
+        <f>VLOOKUP(A8,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.12003055736215636</v>
       </c>
       <c r="F8" s="21">
-        <f>(VLOOKUP(A8,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A8,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G8" s="21">
-        <f>VLOOKUP(A8,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A8,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.44416373263427789</v>
       </c>
     </row>
@@ -3082,15 +3843,16 @@
       <c r="D9" s="2">
         <v>953.72</v>
       </c>
-      <c r="E9" s="11">
-        <v>0.21193723663783545</v>
+      <c r="E9" s="29">
+        <f>VLOOKUP(A9,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.19445659039012778</v>
       </c>
       <c r="F9" s="21">
-        <f>(VLOOKUP(A9,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A9,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="G9" s="21">
-        <f>VLOOKUP(A9,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A9,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.32420249281281915</v>
       </c>
     </row>
@@ -3107,15 +3869,16 @@
       <c r="D10" s="2">
         <v>951.34</v>
       </c>
-      <c r="E10" s="11">
-        <v>9.7982966278589531E-2</v>
+      <c r="E10" s="29">
+        <f>VLOOKUP(A10,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.11871093038781332</v>
       </c>
       <c r="F10" s="21">
-        <f>(VLOOKUP(A10,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A10,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G10" s="21">
-        <f>VLOOKUP(A10,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A10,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.44730870143731455</v>
       </c>
     </row>
@@ -3132,15 +3895,16 @@
       <c r="D11" s="2">
         <v>906.4</v>
       </c>
-      <c r="E11" s="11">
-        <v>0.12749161239392146</v>
+      <c r="E11" s="29">
+        <f>VLOOKUP(A11,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.14110135348775538</v>
       </c>
       <c r="F11" s="21">
-        <f>(VLOOKUP(A11,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A11,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>0.02</v>
       </c>
       <c r="G11" s="21">
-        <f>VLOOKUP(A11,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A11,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.40596388602544575</v>
       </c>
     </row>
@@ -3157,15 +3921,16 @@
       <c r="D12" s="2">
         <v>881.6</v>
       </c>
-      <c r="E12" s="11">
-        <v>0.1002957505318321</v>
+      <c r="E12" s="29">
+        <f>VLOOKUP(A12,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.10600931500624787</v>
       </c>
       <c r="F12" s="21">
-        <f>(VLOOKUP(A12,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A12,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="G12" s="21">
-        <f>VLOOKUP(A12,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A12,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.44803753063923168</v>
       </c>
     </row>
@@ -3182,15 +3947,16 @@
       <c r="D13" s="2">
         <v>831.07</v>
       </c>
-      <c r="E13" s="11">
-        <v>0.11290753607696419</v>
+      <c r="E13" s="29">
+        <f>VLOOKUP(A13,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.13259636363636362</v>
       </c>
       <c r="F13" s="21">
-        <f>(VLOOKUP(A13,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A13,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>0.03</v>
       </c>
       <c r="G13" s="21">
-        <f>VLOOKUP(A13,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A13,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.52367713905709745</v>
       </c>
     </row>
@@ -3207,15 +3973,16 @@
       <c r="D14" s="2">
         <v>796.74</v>
       </c>
-      <c r="E14" s="11">
-        <v>0.11104029519057403</v>
+      <c r="E14" s="29">
+        <f>VLOOKUP(A14,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.11876571928464207</v>
       </c>
       <c r="F14" s="21">
-        <f>(VLOOKUP(A14,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A14,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>0.02</v>
       </c>
       <c r="G14" s="21">
-        <f>VLOOKUP(A14,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A14,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.53565716502777661</v>
       </c>
     </row>
@@ -3232,15 +3999,16 @@
       <c r="D15" s="2">
         <v>795.37</v>
       </c>
-      <c r="E15" s="11">
-        <v>0.19706725074609088</v>
+      <c r="E15" s="29">
+        <f>VLOOKUP(A15,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.22045084283671909</v>
       </c>
       <c r="F15" s="21">
-        <f>(VLOOKUP(A15,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A15,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="G15" s="21">
-        <f>VLOOKUP(A15,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A15,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.40502633965337859</v>
       </c>
     </row>
@@ -3257,15 +4025,16 @@
       <c r="D16" s="2">
         <v>781.97</v>
       </c>
-      <c r="E16" s="11">
-        <v>8.6979313290555554E-2</v>
+      <c r="E16" s="29">
+        <f>VLOOKUP(A16,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>9.4234277800980371E-2</v>
       </c>
       <c r="F16" s="21">
-        <f>(VLOOKUP(A16,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A16,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.7000000000000003E-2</v>
       </c>
       <c r="G16" s="21">
-        <f>VLOOKUP(A16,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A16,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.52200836250433058</v>
       </c>
     </row>
@@ -3282,15 +4051,16 @@
       <c r="D17" s="2">
         <v>770.44</v>
       </c>
-      <c r="E17" s="11">
-        <v>0.12933412135539796</v>
+      <c r="E17" s="29">
+        <f>VLOOKUP(A17,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.14803060237925092</v>
       </c>
       <c r="F17" s="21">
-        <f>(VLOOKUP(A17,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A17,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.7999999999999997E-2</v>
       </c>
       <c r="G17" s="21">
-        <f>VLOOKUP(A17,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A17,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.44472490826575028</v>
       </c>
     </row>
@@ -3307,15 +4077,16 @@
       <c r="D18" s="2">
         <v>756.4</v>
       </c>
-      <c r="E18" s="11">
-        <v>0.11813419461567246</v>
+      <c r="E18" s="29">
+        <f>VLOOKUP(A18,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.11689244663382595</v>
       </c>
       <c r="F18" s="21">
-        <f>(VLOOKUP(A18,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A18,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="G18" s="21">
-        <f>VLOOKUP(A18,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A18,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.49205343945673302</v>
       </c>
     </row>
@@ -3332,15 +4103,16 @@
       <c r="D19" s="2">
         <v>753.8</v>
       </c>
-      <c r="E19" s="11">
-        <v>8.466798721917522E-2</v>
+      <c r="E19" s="29">
+        <f>VLOOKUP(A19,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>9.912354397039122E-2</v>
       </c>
       <c r="F19" s="21">
-        <f>(VLOOKUP(A19,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A19,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G19" s="21">
-        <f>VLOOKUP(A19,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A19,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.4602014881778389</v>
       </c>
     </row>
@@ -3357,15 +4129,16 @@
       <c r="D20" s="2">
         <v>738.24</v>
       </c>
-      <c r="E20" s="11">
-        <v>8.814076041984234E-2</v>
+      <c r="E20" s="29">
+        <f>VLOOKUP(A20,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>8.3557622969967188E-2</v>
       </c>
       <c r="F20" s="21">
-        <f>(VLOOKUP(A20,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A20,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="G20" s="21">
-        <f>VLOOKUP(A20,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A20,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.4480997448526492</v>
       </c>
     </row>
@@ -3382,15 +4155,16 @@
       <c r="D21" s="2">
         <v>710.09</v>
       </c>
-      <c r="E21" s="11">
-        <v>0.14136295118049069</v>
+      <c r="E21" s="29">
+        <f>VLOOKUP(A21,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.15947926971849988</v>
       </c>
       <c r="F21" s="21">
-        <f>(VLOOKUP(A21,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A21,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="G21" s="21">
-        <f>VLOOKUP(A21,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A21,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.51282361829361267</v>
       </c>
     </row>
@@ -3407,15 +4181,16 @@
       <c r="D22" s="2">
         <v>709.82</v>
       </c>
-      <c r="E22" s="11">
-        <v>0.18739393776788049</v>
+      <c r="E22" s="29">
+        <f>VLOOKUP(A22,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.14990162416573435</v>
       </c>
       <c r="F22" s="21">
-        <f>(VLOOKUP(A22,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A22,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="G22" s="21">
-        <f>VLOOKUP(A22,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A22,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.4332312928368135</v>
       </c>
     </row>
@@ -3432,15 +4207,16 @@
       <c r="D23" s="2">
         <v>608.47</v>
       </c>
-      <c r="E23" s="11">
-        <v>0.16653675665887208</v>
+      <c r="E23" s="29">
+        <f>VLOOKUP(A23,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.14390591460884936</v>
       </c>
       <c r="F23" s="21">
-        <f>(VLOOKUP(A23,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A23,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>1.6E-2</v>
       </c>
       <c r="G23" s="21">
-        <f>VLOOKUP(A23,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A23,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.4133208641513561</v>
       </c>
     </row>
@@ -3457,15 +4233,16 @@
       <c r="D24" s="2">
         <v>598.69000000000005</v>
       </c>
-      <c r="E24" s="11">
-        <v>0.13111090418102245</v>
+      <c r="E24" s="29">
+        <f>VLOOKUP(A24,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.12616039060371745</v>
       </c>
       <c r="F24" s="21">
-        <f>(VLOOKUP(A24,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A24,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="G24" s="21">
-        <f>VLOOKUP(A24,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A24,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.52800198129633191</v>
       </c>
     </row>
@@ -3482,15 +4259,16 @@
       <c r="D25" s="2">
         <v>578.46</v>
       </c>
-      <c r="E25" s="11">
-        <v>0.11082899694957832</v>
+      <c r="E25" s="29">
+        <f>VLOOKUP(A25,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.12888170694109266</v>
       </c>
       <c r="F25" s="21">
-        <f>(VLOOKUP(A25,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A25,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="G25" s="21">
-        <f>VLOOKUP(A25,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A25,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.40442810578990457</v>
       </c>
     </row>
@@ -3507,15 +4285,16 @@
       <c r="D26" s="2">
         <v>550.71</v>
       </c>
-      <c r="E26" s="11">
-        <v>0.39598747774213661</v>
+      <c r="E26" s="29">
+        <f>VLOOKUP(A26,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.43652402608076268</v>
       </c>
       <c r="F26" s="21">
-        <f>(VLOOKUP(A26,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A26,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="G26" s="21">
-        <f>VLOOKUP(A26,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A26,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.24061835124308917</v>
       </c>
     </row>
@@ -3532,15 +4311,16 @@
       <c r="D27" s="2">
         <v>536</v>
       </c>
-      <c r="E27" s="11">
-        <v>0.1036009560753889</v>
+      <c r="E27" s="29">
+        <f>VLOOKUP(A27,[3]主要城市年度数据!$A$5:$E$39,5,0)</f>
+        <v>0.10574205945518254</v>
       </c>
       <c r="F27" s="21">
-        <f>(VLOOKUP(A27,[1]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
+        <f>(VLOOKUP(A27,[2]主要城市年度数据!$A$5:$E$30,5,0))/100</f>
         <v>2.3399999999999997E-2</v>
       </c>
       <c r="G27" s="21">
-        <f>VLOOKUP(A27,[2]主要城市年度数据!$A$5:$E$30,5,0)</f>
+        <f>VLOOKUP(A27,[1]主要城市年度数据!$A$5:$E$30,5,0)</f>
         <v>0.46526082481147402</v>
       </c>
     </row>
@@ -3642,7 +4422,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD35"/>
+      <selection activeCell="E2" sqref="E2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3693,15 +4473,16 @@
       <c r="D2" s="14">
         <v>3412.71</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="29">
+        <f>VLOOKUP(A2,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>9.0638341126245178E-2</v>
       </c>
       <c r="F2" s="21">
-        <f>(VLOOKUP(A2,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A2,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G2" s="21">
-        <f>VLOOKUP(A2,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A2,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.60720025715204118</v>
       </c>
     </row>
@@ -3718,15 +4499,16 @@
       <c r="D3" s="14">
         <v>1519.7</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="29">
+        <f>VLOOKUP(A3,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.12665728535462317</v>
       </c>
       <c r="F3" s="21">
-        <f>(VLOOKUP(A3,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A3,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.03</v>
       </c>
       <c r="G3" s="21">
-        <f>VLOOKUP(A3,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A3,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.45475705557171958</v>
       </c>
     </row>
@@ -3743,15 +4525,16 @@
       <c r="D4" s="14">
         <v>1475.63</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="29">
+        <f>VLOOKUP(A4,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.21033558891216983</v>
       </c>
       <c r="F4" s="21">
-        <f>(VLOOKUP(A4,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A4,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="G4" s="21">
-        <f>VLOOKUP(A4,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A4,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.49700598802395218</v>
       </c>
     </row>
@@ -3768,15 +4551,16 @@
       <c r="D5" s="14">
         <v>1400.8</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="29">
+        <f>VLOOKUP(A5,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.23069190275961216</v>
       </c>
       <c r="F5" s="21">
-        <f>(VLOOKUP(A5,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A5,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="G5" s="21">
-        <f>VLOOKUP(A5,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A5,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.45985401459854014</v>
       </c>
     </row>
@@ -3793,15 +4577,16 @@
       <c r="D6" s="14">
         <v>1130.68</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="29">
+        <f>VLOOKUP(A6,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.13783447417548225</v>
       </c>
       <c r="F6" s="21">
-        <f>(VLOOKUP(A6,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A6,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="G6" s="21">
-        <f>VLOOKUP(A6,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A6,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.54154462771697243</v>
       </c>
     </row>
@@ -3818,15 +4603,16 @@
       <c r="D7" s="14">
         <v>986.6</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="29">
+        <f>VLOOKUP(A7,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.11656651349122187</v>
       </c>
       <c r="F7" s="21">
-        <f>(VLOOKUP(A7,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A7,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G7" s="21">
-        <f>VLOOKUP(A7,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A7,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.60694198939418298</v>
       </c>
     </row>
@@ -3843,15 +4629,16 @@
       <c r="D8" s="14">
         <v>985.11</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="29">
+        <f>VLOOKUP(A8,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.2006245467596087</v>
       </c>
       <c r="F8" s="21">
-        <f>(VLOOKUP(A8,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A8,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G8" s="21">
-        <f>VLOOKUP(A8,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A8,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.33832976445396146</v>
       </c>
     </row>
@@ -3868,15 +4655,16 @@
       <c r="D9" s="14">
         <v>978</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="29">
+        <f>VLOOKUP(A9,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.13168460086429098</v>
       </c>
       <c r="F9" s="21">
-        <f>(VLOOKUP(A9,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A9,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="G9" s="21">
-        <f>VLOOKUP(A9,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A9,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.46348602370847364</v>
       </c>
     </row>
@@ -3893,15 +4681,16 @@
       <c r="D10" s="14">
         <v>948.5</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="29">
+        <f>VLOOKUP(A10,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.11156186612576065</v>
       </c>
       <c r="F10" s="21">
-        <f>(VLOOKUP(A10,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A10,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G10" s="21">
-        <f>VLOOKUP(A10,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A10,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.4806040864672787</v>
       </c>
     </row>
@@ -3918,15 +4707,16 @@
       <c r="D11" s="14">
         <v>916.2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="29">
+        <f>VLOOKUP(A11,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.14106471555346173</v>
       </c>
       <c r="F11" s="21">
-        <f>(VLOOKUP(A11,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A11,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.03</v>
       </c>
       <c r="G11" s="21">
-        <f>VLOOKUP(A11,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A11,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.43430866322432587</v>
       </c>
     </row>
@@ -3943,15 +4733,16 @@
       <c r="D12" s="14">
         <v>898.9</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="29">
+        <f>VLOOKUP(A12,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.11004426361441473</v>
       </c>
       <c r="F12" s="21">
-        <f>(VLOOKUP(A12,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A12,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.02</v>
       </c>
       <c r="G12" s="21">
-        <f>VLOOKUP(A12,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A12,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.46821318455439731</v>
       </c>
     </row>
@@ -3968,15 +4759,16 @@
       <c r="D13" s="14">
         <v>853.4</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="29">
+        <f>VLOOKUP(A13,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>9.825090145847909E-2</v>
       </c>
       <c r="F13" s="21">
-        <f>(VLOOKUP(A13,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A13,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G13" s="21">
-        <f>VLOOKUP(A13,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A13,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.49231457991344585</v>
       </c>
     </row>
@@ -3993,15 +4785,16 @@
       <c r="D14" s="14">
         <v>836.8</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="29">
+        <f>VLOOKUP(A14,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.12106962924686733</v>
       </c>
       <c r="F14" s="21">
-        <f>(VLOOKUP(A14,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A14,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.03</v>
       </c>
       <c r="G14" s="21">
-        <f>VLOOKUP(A14,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A14,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.55496812315347532</v>
       </c>
     </row>
@@ -4018,15 +4811,16 @@
       <c r="D15" s="14">
         <v>813.83</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="29">
+        <f>VLOOKUP(A15,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.20764365903107695</v>
       </c>
       <c r="F15" s="21">
-        <f>(VLOOKUP(A15,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A15,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.4E-2</v>
       </c>
       <c r="G15" s="21">
-        <f>VLOOKUP(A15,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A15,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.426126640045636</v>
       </c>
     </row>
@@ -4043,15 +4837,16 @@
       <c r="D16" s="14">
         <v>806.7</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="29">
+        <f>VLOOKUP(A16,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.11331199084794863</v>
       </c>
       <c r="F16" s="21">
-        <f>(VLOOKUP(A16,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A16,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.02</v>
       </c>
       <c r="G16" s="21">
-        <f>VLOOKUP(A16,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A16,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.57232704402515722</v>
       </c>
     </row>
@@ -4068,15 +4863,16 @@
       <c r="D17" s="14">
         <v>791.4</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="29">
+        <f>VLOOKUP(A17,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>9.476817849380402E-2</v>
       </c>
       <c r="F17" s="21">
-        <f>(VLOOKUP(A17,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A17,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.1E-2</v>
       </c>
       <c r="G17" s="21">
-        <f>VLOOKUP(A17,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A17,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.54225786551511401</v>
       </c>
     </row>
@@ -4093,15 +4889,16 @@
       <c r="D18" s="14">
         <v>781.5</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="29">
+        <f>VLOOKUP(A18,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.14563338357915626</v>
       </c>
       <c r="F18" s="21">
-        <f>(VLOOKUP(A18,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A18,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.1E-2</v>
       </c>
       <c r="G18" s="21">
-        <f>VLOOKUP(A18,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A18,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.4662756598240469</v>
       </c>
     </row>
@@ -4118,15 +4915,16 @@
       <c r="D19" s="14">
         <v>762.2</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="29">
+        <f>VLOOKUP(A19,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.12112649622554948</v>
       </c>
       <c r="F19" s="21">
-        <f>(VLOOKUP(A19,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A19,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.1E-2</v>
       </c>
       <c r="G19" s="21">
-        <f>VLOOKUP(A19,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A19,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.52998776009791926</v>
       </c>
     </row>
@@ -4143,15 +4941,16 @@
       <c r="D20" s="14">
         <v>747.3</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="29">
+        <f>VLOOKUP(A20,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>8.6285427497324887E-2</v>
       </c>
       <c r="F20" s="21">
-        <f>(VLOOKUP(A20,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A20,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G20" s="21">
-        <f>VLOOKUP(A20,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A20,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.46993973247096865</v>
       </c>
     </row>
@@ -4168,15 +4967,16 @@
       <c r="D21" s="14">
         <v>722.6</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="29">
+        <f>VLOOKUP(A21,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.1824209267780153</v>
       </c>
       <c r="F21" s="21">
-        <f>(VLOOKUP(A21,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A21,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G21" s="21">
-        <f>VLOOKUP(A21,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A21,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.46477222791855871</v>
       </c>
     </row>
@@ -4193,15 +4993,16 @@
       <c r="D22" s="14">
         <v>715.4</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="29">
+        <f>VLOOKUP(A22,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.14900806401459399</v>
       </c>
       <c r="F22" s="21">
-        <f>(VLOOKUP(A22,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A22,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>0.03</v>
       </c>
       <c r="G22" s="21">
-        <f>VLOOKUP(A22,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A22,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.54559505409582687</v>
       </c>
     </row>
@@ -4218,15 +5019,16 @@
       <c r="D23" s="14">
         <v>613.66</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="29">
+        <f>VLOOKUP(A23,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.1586632640224287</v>
       </c>
       <c r="F23" s="21">
-        <f>(VLOOKUP(A23,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A23,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="G23" s="21">
-        <f>VLOOKUP(A23,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A23,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.43616257360333194</v>
       </c>
     </row>
@@ -4243,15 +5045,16 @@
       <c r="D24" s="14">
         <v>601.6</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="29">
+        <f>VLOOKUP(A24,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.13663320244504715</v>
       </c>
       <c r="F24" s="21">
-        <f>(VLOOKUP(A24,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A24,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="G24" s="21">
-        <f>VLOOKUP(A24,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A24,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.57133878064110621</v>
       </c>
     </row>
@@ -4268,15 +5071,16 @@
       <c r="D25" s="14">
         <v>582.9</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="29">
+        <f>VLOOKUP(A25,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.11936972161401314</v>
       </c>
       <c r="F25" s="21">
-        <f>(VLOOKUP(A25,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A25,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G25" s="21">
-        <f>VLOOKUP(A25,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A25,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.41602945341263092</v>
       </c>
     </row>
@@ -4293,15 +5097,16 @@
       <c r="D26" s="14">
         <v>548.58000000000004</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="29">
+        <f>VLOOKUP(A26,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.40767090277976992</v>
       </c>
       <c r="F26" s="21">
-        <f>(VLOOKUP(A26,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A26,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G26" s="21">
-        <f>VLOOKUP(A26,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A26,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.25738714950333208</v>
       </c>
     </row>
@@ -4318,15 +5123,16 @@
       <c r="D27" s="14">
         <v>538.29999999999995</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="29">
+        <f>VLOOKUP(A27,[3]主要城市年度数据!$A$5:$D$39,4,0)</f>
         <v>0.1158743361699405</v>
       </c>
       <c r="F27" s="21">
-        <f>(VLOOKUP(A27,[1]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
+        <f>(VLOOKUP(A27,[2]主要城市年度数据!$A$4:$D$30,4,0))/100</f>
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="G27" s="21">
-        <f>VLOOKUP(A27,[2]主要城市年度数据!$A$5:$D$30,4,0)</f>
+        <f>VLOOKUP(A27,[1]主要城市年度数据!$A$5:$D$30,4,0)</f>
         <v>0.47950880307737825</v>
       </c>
     </row>
@@ -4426,8 +5232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4436,7 +5242,7 @@
     <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="3"/>
+    <col min="5" max="5" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.6640625" style="11"/>
@@ -4479,15 +5285,16 @@
       <c r="D2" s="15">
         <v>3414.7</v>
       </c>
-      <c r="E2" s="11">
-        <v>9.6495530240542166E-2</v>
+      <c r="E2" s="29">
+        <f>VLOOKUP(A2,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>9.0477347942336819E-2</v>
       </c>
       <c r="F2" s="21">
-        <f>(VLOOKUP(A2,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A2,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="G2" s="21">
-        <f>VLOOKUP(A2,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A2,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.63317833397264434</v>
       </c>
     </row>
@@ -4504,15 +5311,16 @@
       <c r="D3" s="15">
         <v>1556.2</v>
       </c>
-      <c r="E3" s="11">
-        <v>0.12027399788759113</v>
+      <c r="E3" s="29">
+        <f>VLOOKUP(A3,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.12922803966518229</v>
       </c>
       <c r="F3" s="21">
-        <f>(VLOOKUP(A3,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A3,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="G3" s="21">
-        <f>VLOOKUP(A3,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A3,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.48086157877130337</v>
       </c>
     </row>
@@ -4529,15 +5337,16 @@
       <c r="D4" s="15">
         <v>1492.9</v>
       </c>
-      <c r="E4" s="11">
-        <v>0.21694383680784335</v>
+      <c r="E4" s="29">
+        <f>VLOOKUP(A4,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.2089945065875044</v>
       </c>
       <c r="F4" s="21">
-        <f>(VLOOKUP(A4,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A4,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.7000000000000003E-2</v>
       </c>
       <c r="G4" s="21">
-        <f>VLOOKUP(A4,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A4,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.53663623395121951</v>
       </c>
     </row>
@@ -4554,15 +5363,16 @@
       <c r="D5" s="15">
         <v>1413.5</v>
       </c>
-      <c r="E5" s="11">
-        <v>0.22189313241534597</v>
+      <c r="E5" s="29">
+        <f>VLOOKUP(A5,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.23295319199618866</v>
       </c>
       <c r="F5" s="21">
-        <f>(VLOOKUP(A5,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A5,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G5" s="21">
-        <f>VLOOKUP(A5,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A5,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.49753990759580885</v>
       </c>
     </row>
@@ -4579,15 +5389,16 @@
       <c r="D6" s="15">
         <v>1151.5999999999999</v>
       </c>
-      <c r="E6" s="11">
-        <v>0.13819644809232809</v>
+      <c r="E6" s="29">
+        <f>VLOOKUP(A6,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.12771999906375078</v>
       </c>
       <c r="F6" s="21">
-        <f>(VLOOKUP(A6,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A6,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="G6" s="21">
-        <f>VLOOKUP(A6,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A6,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.59144818449347503</v>
       </c>
     </row>
@@ -4604,15 +5415,16 @@
       <c r="D7" s="15">
         <v>1011.5</v>
       </c>
-      <c r="E7" s="11">
-        <v>0.19445659039012778</v>
+      <c r="E7" s="29">
+        <f>VLOOKUP(A7,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.21193723663783545</v>
       </c>
       <c r="F7" s="21">
-        <f>(VLOOKUP(A7,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A7,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="G7" s="21">
-        <f>VLOOKUP(A7,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A7,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.35307263840676756</v>
       </c>
     </row>
@@ -4629,15 +5441,16 @@
       <c r="D8" s="15">
         <v>999.5</v>
       </c>
-      <c r="E8" s="11">
-        <v>0.12003055736215636</v>
+      <c r="E8" s="29">
+        <f>VLOOKUP(A8,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.13169917109384463</v>
       </c>
       <c r="F8" s="21">
-        <f>(VLOOKUP(A8,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A8,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="G8" s="21">
-        <f>VLOOKUP(A8,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A8,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.48364888528612254</v>
       </c>
     </row>
@@ -4654,15 +5467,16 @@
       <c r="D9" s="15">
         <v>988</v>
       </c>
-      <c r="E9" s="11">
-        <v>0.11603272137821842</v>
+      <c r="E9" s="29">
+        <f>VLOOKUP(A9,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.11734972830028677</v>
       </c>
       <c r="F9" s="21">
-        <f>(VLOOKUP(A9,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A9,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="G9" s="21">
-        <f>VLOOKUP(A9,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A9,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.65021976679668769</v>
       </c>
     </row>
@@ -4679,15 +5493,16 @@
       <c r="D10" s="15">
         <v>943.2</v>
       </c>
-      <c r="E10" s="11">
-        <v>0.11871093038781332</v>
+      <c r="E10" s="29">
+        <f>VLOOKUP(A10,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>9.7982966278589531E-2</v>
       </c>
       <c r="F10" s="21">
-        <f>(VLOOKUP(A10,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A10,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="G10" s="21">
-        <f>VLOOKUP(A10,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A10,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.5163778106413982</v>
       </c>
     </row>
@@ -4704,15 +5519,16 @@
       <c r="D11" s="15">
         <v>934.4</v>
       </c>
-      <c r="E11" s="11">
-        <v>0.14110135348775538</v>
+      <c r="E11" s="29">
+        <f>VLOOKUP(A11,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.12749161239392146</v>
       </c>
       <c r="F11" s="21">
-        <f>(VLOOKUP(A11,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A11,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="G11" s="21">
-        <f>VLOOKUP(A11,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A11,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.46463249920678407</v>
       </c>
     </row>
@@ -4729,15 +5545,16 @@
       <c r="D12" s="15">
         <v>911.5</v>
       </c>
-      <c r="E12" s="11">
-        <v>0.10600931500624787</v>
+      <c r="E12" s="29">
+        <f>VLOOKUP(A12,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.1002957505318321</v>
       </c>
       <c r="F12" s="21">
-        <f>(VLOOKUP(A12,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A12,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.7999999999999997E-2</v>
       </c>
       <c r="G12" s="21">
-        <f>VLOOKUP(A12,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A12,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.48929737175766413</v>
       </c>
     </row>
@@ -4754,15 +5571,16 @@
       <c r="D13" s="15">
         <v>851.7</v>
       </c>
-      <c r="E13" s="11">
-        <v>9.912354397039122E-2</v>
+      <c r="E13" s="29">
+        <f>VLOOKUP(A13,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>8.466798721917522E-2</v>
       </c>
       <c r="F13" s="21">
-        <f>(VLOOKUP(A13,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A13,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G13" s="21">
-        <f>VLOOKUP(A13,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A13,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.52666853937180313</v>
       </c>
     </row>
@@ -4779,15 +5597,16 @@
       <c r="D14" s="15">
         <v>846.2</v>
       </c>
-      <c r="E14" s="11">
-        <v>0.13259636363636362</v>
+      <c r="E14" s="29">
+        <f>VLOOKUP(A14,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.11290753607696419</v>
       </c>
       <c r="F14" s="21">
-        <f>(VLOOKUP(A14,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A14,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.7000000000000003E-2</v>
       </c>
       <c r="G14" s="21">
-        <f>VLOOKUP(A14,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A14,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.58812881973622011</v>
       </c>
     </row>
@@ -4804,15 +5623,16 @@
       <c r="D15" s="15">
         <v>834.5</v>
       </c>
-      <c r="E15" s="11">
-        <v>0.22045084283671909</v>
+      <c r="E15" s="29">
+        <f>VLOOKUP(A15,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.19706725074609088</v>
       </c>
       <c r="F15" s="21">
-        <f>(VLOOKUP(A15,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A15,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.3E-2</v>
       </c>
       <c r="G15" s="21">
-        <f>VLOOKUP(A15,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A15,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.44832618419824821</v>
       </c>
     </row>
@@ -4829,15 +5649,16 @@
       <c r="D16" s="15">
         <v>816.6</v>
       </c>
-      <c r="E16" s="11">
-        <v>0.11876571928464207</v>
+      <c r="E16" s="29">
+        <f>VLOOKUP(A16,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.11104029519057403</v>
       </c>
       <c r="F16" s="21">
-        <f>(VLOOKUP(A16,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A16,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>0.02</v>
       </c>
       <c r="G16" s="21">
-        <f>VLOOKUP(A16,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A16,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.61150726006920586</v>
       </c>
     </row>
@@ -4854,15 +5675,16 @@
       <c r="D17" s="15">
         <v>800.9</v>
       </c>
-      <c r="E17" s="11">
-        <v>9.4234277800980371E-2</v>
+      <c r="E17" s="29">
+        <f>VLOOKUP(A17,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>8.6979313290555554E-2</v>
       </c>
       <c r="F17" s="21">
-        <f>(VLOOKUP(A17,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A17,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.7999999999999997E-2</v>
       </c>
       <c r="G17" s="21">
-        <f>VLOOKUP(A17,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A17,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.56329287772773595</v>
       </c>
     </row>
@@ -4879,15 +5701,16 @@
       <c r="D18" s="15">
         <v>792.7</v>
       </c>
-      <c r="E18" s="11">
-        <v>0.14803060237925092</v>
+      <c r="E18" s="29">
+        <f>VLOOKUP(A18,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.12933412135539796</v>
       </c>
       <c r="F18" s="21">
-        <f>(VLOOKUP(A18,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A18,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.7999999999999997E-2</v>
       </c>
       <c r="G18" s="21">
-        <f>VLOOKUP(A18,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A18,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.48887073087984761</v>
       </c>
     </row>
@@ -4904,15 +5727,16 @@
       <c r="D19" s="15">
         <v>765.4</v>
       </c>
-      <c r="E19" s="11">
-        <v>0.11689244663382595</v>
+      <c r="E19" s="29">
+        <f>VLOOKUP(A19,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.11813419461567246</v>
       </c>
       <c r="F19" s="21">
-        <f>(VLOOKUP(A19,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A19,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.1E-2</v>
       </c>
       <c r="G19" s="21">
-        <f>VLOOKUP(A19,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A19,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.57084658561422097</v>
       </c>
     </row>
@@ -4929,15 +5753,16 @@
       <c r="D20" s="15">
         <v>760</v>
       </c>
-      <c r="E20" s="11">
-        <v>8.3557622969967188E-2</v>
+      <c r="E20" s="29">
+        <f>VLOOKUP(A20,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>8.814076041984234E-2</v>
       </c>
       <c r="F20" s="21">
-        <f>(VLOOKUP(A20,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A20,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G20" s="21">
-        <f>VLOOKUP(A20,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A20,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.49284418188523366</v>
       </c>
     </row>
@@ -4954,15 +5779,16 @@
       <c r="D21" s="15">
         <v>733.7</v>
       </c>
-      <c r="E21" s="11">
-        <v>0.14990162416573435</v>
+      <c r="E21" s="29">
+        <f>VLOOKUP(A21,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.18739393776788049</v>
       </c>
       <c r="F21" s="21">
-        <f>(VLOOKUP(A21,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A21,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="G21" s="21">
-        <f>VLOOKUP(A21,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A21,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.49860946661982486</v>
       </c>
     </row>
@@ -4979,15 +5805,16 @@
       <c r="D22" s="15">
         <v>723.4</v>
       </c>
-      <c r="E22" s="11">
-        <v>0.15947926971849988</v>
+      <c r="E22" s="29">
+        <f>VLOOKUP(A22,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.14136295118049069</v>
       </c>
       <c r="F22" s="21">
-        <f>(VLOOKUP(A22,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A22,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G22" s="21">
-        <f>VLOOKUP(A22,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A22,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.58046071287496226</v>
       </c>
     </row>
@@ -5004,15 +5831,16 @@
       <c r="D23" s="15">
         <v>627.9</v>
       </c>
-      <c r="E23" s="11">
-        <v>0.43652402608076268</v>
+      <c r="E23" s="29">
+        <f>VLOOKUP(A23,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.39598747774213661</v>
       </c>
       <c r="F23" s="21">
-        <f>(VLOOKUP(A23,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A23,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.2000000000000002E-2</v>
       </c>
       <c r="G23" s="21">
-        <f>VLOOKUP(A23,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A23,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.27532457265706323</v>
       </c>
     </row>
@@ -5029,15 +5857,16 @@
       <c r="D24" s="15">
         <v>618.29999999999995</v>
       </c>
-      <c r="E24" s="11">
-        <v>0.14390591460884936</v>
+      <c r="E24" s="29">
+        <f>VLOOKUP(A24,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.16653675665887208</v>
       </c>
       <c r="F24" s="21">
-        <f>(VLOOKUP(A24,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A24,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>2.3E-2</v>
       </c>
       <c r="G24" s="21">
-        <f>VLOOKUP(A24,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A24,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.46026660425885968</v>
       </c>
     </row>
@@ -5054,15 +5883,16 @@
       <c r="D25" s="15">
         <v>603.6</v>
       </c>
-      <c r="E25" s="11">
-        <v>0.12616039060371745</v>
+      <c r="E25" s="29">
+        <f>VLOOKUP(A25,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.13111090418102245</v>
       </c>
       <c r="F25" s="21">
-        <f>(VLOOKUP(A25,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A25,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G25" s="21">
-        <f>VLOOKUP(A25,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A25,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.61823253288374369</v>
       </c>
     </row>
@@ -5079,15 +5909,16 @@
       <c r="D26" s="15">
         <v>588.6</v>
       </c>
-      <c r="E26" s="11">
-        <v>0.12888170694109266</v>
+      <c r="E26" s="29">
+        <f>VLOOKUP(A26,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.11082899694957832</v>
       </c>
       <c r="F26" s="21">
-        <f>(VLOOKUP(A26,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A26,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.9E-2</v>
       </c>
       <c r="G26" s="21">
-        <f>VLOOKUP(A26,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A26,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.4279635950838831</v>
       </c>
     </row>
@@ -5104,15 +5935,16 @@
       <c r="D27" s="15">
         <v>540.4</v>
       </c>
-      <c r="E27" s="11">
-        <v>0.10574205945518254</v>
+      <c r="E27" s="29">
+        <f>VLOOKUP(A27,[3]主要城市年度数据!$A$5:$C$39,3,0)</f>
+        <v>0.1036009560753889</v>
       </c>
       <c r="F27" s="21">
-        <f>(VLOOKUP(A27,[1]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
+        <f>(VLOOKUP(A27,[2]主要城市年度数据!$A$5:$C$30,3,0))/100</f>
         <v>3.1E-2</v>
       </c>
       <c r="G27" s="21">
-        <f>VLOOKUP(A27,[2]主要城市年度数据!$A$5:$C$30,3,0)</f>
+        <f>VLOOKUP(A27,[1]主要城市年度数据!$A$5:$C$30,3,0)</f>
         <v>0.49419310624716417</v>
       </c>
     </row>
@@ -5227,8 +6059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5281,15 +6113,16 @@
       <c r="D2" s="15">
         <v>3411.835</v>
       </c>
-      <c r="E2" s="11">
-        <v>0.10016608776478646</v>
+      <c r="E2" s="29">
+        <f>VLOOKUP(A2,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>8.8205293570617946E-2</v>
       </c>
       <c r="F2" s="21">
-        <f>(VLOOKUP(A2,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A2,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="G2" s="21">
-        <f>VLOOKUP(A2,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A2,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.66026784061783694</v>
       </c>
     </row>
@@ -5306,15 +6139,16 @@
       <c r="D3" s="15">
         <v>1571.6</v>
       </c>
-      <c r="E3" s="11">
-        <v>0.11115837793003147</v>
+      <c r="E3" s="29">
+        <f>VLOOKUP(A3,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.13418698506506063</v>
       </c>
       <c r="F3" s="21">
-        <f>(VLOOKUP(A3,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A3,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>0.02</v>
       </c>
       <c r="G3" s="21">
-        <f>VLOOKUP(A3,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A3,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.50846458588252408</v>
       </c>
     </row>
@@ -5331,15 +6165,16 @@
       <c r="D4" s="15">
         <v>1475.0525</v>
       </c>
-      <c r="E4" s="11">
-        <v>0.20268920081408279</v>
+      <c r="E4" s="29">
+        <f>VLOOKUP(A4,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.21060124583964399</v>
       </c>
       <c r="F4" s="21">
-        <f>(VLOOKUP(A4,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A4,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G4" s="21">
-        <f>VLOOKUP(A4,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A4,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.57942651502916998</v>
       </c>
     </row>
@@ -5356,15 +6191,16 @@
       <c r="D5" s="15">
         <v>1396.8750000000002</v>
       </c>
-      <c r="E5" s="11">
-        <v>0.24972931668479678</v>
+      <c r="E5" s="29">
+        <f>VLOOKUP(A5,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.2289382980283349</v>
       </c>
       <c r="F5" s="21">
-        <f>(VLOOKUP(A5,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A5,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>4.7E-2</v>
       </c>
       <c r="G5" s="21">
-        <f>VLOOKUP(A5,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A5,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.53831422971604925</v>
       </c>
     </row>
@@ -5381,15 +6217,16 @@
       <c r="D6" s="15">
         <v>1118.0225</v>
       </c>
-      <c r="E6" s="11">
-        <v>0.15321953988704043</v>
+      <c r="E6" s="29">
+        <f>VLOOKUP(A6,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.12203800371830895</v>
       </c>
       <c r="F6" s="21">
-        <f>(VLOOKUP(A6,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A6,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="G6" s="21">
-        <f>VLOOKUP(A6,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A6,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.64595037423850021</v>
       </c>
     </row>
@@ -5406,15 +6243,16 @@
       <c r="D7" s="15">
         <v>1049</v>
       </c>
-      <c r="E7" s="11">
-        <v>0.19297186133638533</v>
+      <c r="E7" s="29">
+        <f>VLOOKUP(A7,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.2169629552931836</v>
       </c>
       <c r="F7" s="21">
-        <f>(VLOOKUP(A7,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A7,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.53E-2</v>
       </c>
       <c r="G7" s="21">
-        <f>VLOOKUP(A7,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A7,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.36845793982302522</v>
       </c>
     </row>
@@ -5431,15 +6269,16 @@
       <c r="D8" s="15">
         <v>1002.1474999999999</v>
       </c>
-      <c r="E8" s="11">
-        <v>0.13844196820832336</v>
+      <c r="E8" s="29">
+        <f>VLOOKUP(A8,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.112599294463714</v>
       </c>
       <c r="F8" s="21">
-        <f>(VLOOKUP(A8,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A8,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="G8" s="21">
-        <f>VLOOKUP(A8,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A8,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.69658345034776881</v>
       </c>
     </row>
@@ -5456,15 +6295,16 @@
       <c r="D9" s="15">
         <v>980.27749999999992</v>
       </c>
-      <c r="E9" s="11">
-        <v>0.11460017216642755</v>
+      <c r="E9" s="29">
+        <f>VLOOKUP(A9,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.13635858453879776</v>
       </c>
       <c r="F9" s="21">
-        <f>(VLOOKUP(A9,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A9,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="G9" s="21">
-        <f>VLOOKUP(A9,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A9,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.50468888439587345</v>
       </c>
     </row>
@@ -5481,15 +6321,16 @@
       <c r="D10" s="15">
         <v>948.64499999999998</v>
       </c>
-      <c r="E10" s="11">
-        <v>0.12445026542754037</v>
+      <c r="E10" s="29">
+        <f>VLOOKUP(A10,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>9.2297358475167401E-2</v>
       </c>
       <c r="F10" s="21">
-        <f>(VLOOKUP(A10,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A10,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.4500000000000003E-2</v>
       </c>
       <c r="G10" s="21">
-        <f>VLOOKUP(A10,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A10,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.55481434892243264</v>
       </c>
     </row>
@@ -5506,15 +6347,16 @@
       <c r="D11" s="15">
         <v>944.4</v>
       </c>
-      <c r="E11" s="11">
-        <v>0.14354025382951985</v>
+      <c r="E11" s="29">
+        <f>VLOOKUP(A11,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.12376806171144586</v>
       </c>
       <c r="F11" s="21">
-        <f>(VLOOKUP(A11,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A11,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="G11" s="21">
-        <f>VLOOKUP(A11,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A11,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.49707357370312399</v>
       </c>
     </row>
@@ -5531,15 +6373,16 @@
       <c r="D12" s="15">
         <v>888.97500000000002</v>
       </c>
-      <c r="E12" s="11">
-        <v>0.10073663278287612</v>
+      <c r="E12" s="29">
+        <f>VLOOKUP(A12,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.10018583179299408</v>
       </c>
       <c r="F12" s="21">
-        <f>(VLOOKUP(A12,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A12,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.58E-2</v>
       </c>
       <c r="G12" s="21">
-        <f>VLOOKUP(A12,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A12,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.51133100456538461</v>
       </c>
     </row>
@@ -5556,15 +6399,16 @@
       <c r="D13" s="15">
         <v>846.7</v>
       </c>
-      <c r="E13" s="11">
-        <v>0.22828627388505188</v>
+      <c r="E13" s="29">
+        <f>VLOOKUP(A13,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.1899538596821575</v>
       </c>
       <c r="F13" s="21">
-        <f>(VLOOKUP(A13,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A13,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.3E-2</v>
       </c>
       <c r="G13" s="21">
-        <f>VLOOKUP(A13,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A13,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.4716822384449747</v>
       </c>
     </row>
@@ -5581,15 +6425,16 @@
       <c r="D14" s="15">
         <v>832.96500000000003</v>
       </c>
-      <c r="E14" s="11">
-        <v>0.1362113606340819</v>
+      <c r="E14" s="29">
+        <f>VLOOKUP(A14,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.10773339100203695</v>
       </c>
       <c r="F14" s="21">
-        <f>(VLOOKUP(A14,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A14,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.7400000000000001E-2</v>
       </c>
       <c r="G14" s="21">
-        <f>VLOOKUP(A14,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A14,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.62327094867872723</v>
       </c>
     </row>
@@ -5606,15 +6451,16 @@
       <c r="D15" s="15">
         <v>802.5474999999999</v>
       </c>
-      <c r="E15" s="11">
-        <v>0.1006136151694125</v>
+      <c r="E15" s="29">
+        <f>VLOOKUP(A15,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>8.1093277978233833E-2</v>
       </c>
       <c r="F15" s="21">
-        <f>(VLOOKUP(A15,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A15,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>5.4000000000000006E-2</v>
       </c>
       <c r="G15" s="21">
-        <f>VLOOKUP(A15,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A15,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.5634197354317535</v>
       </c>
     </row>
@@ -5631,15 +6477,16 @@
       <c r="D16" s="15">
         <v>800.2</v>
       </c>
-      <c r="E16" s="11">
-        <v>0.14680225112893441</v>
+      <c r="E16" s="29">
+        <f>VLOOKUP(A16,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.12530206186344961</v>
       </c>
       <c r="F16" s="21">
-        <f>(VLOOKUP(A16,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A16,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.81E-2</v>
       </c>
       <c r="G16" s="21">
-        <f>VLOOKUP(A16,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A16,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.5125607277059735</v>
       </c>
     </row>
@@ -5656,15 +6503,16 @@
       <c r="D17" s="15">
         <v>786.27250000000004</v>
       </c>
-      <c r="E17" s="11">
-        <v>9.2235896083976421E-2</v>
+      <c r="E17" s="29">
+        <f>VLOOKUP(A17,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>8.5712660429552681E-2</v>
       </c>
       <c r="F17" s="21">
-        <f>(VLOOKUP(A17,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A17,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.1E-2</v>
       </c>
       <c r="G17" s="21">
-        <f>VLOOKUP(A17,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A17,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.58514387024589909</v>
       </c>
     </row>
@@ -5681,15 +6529,16 @@
       <c r="D18" s="15">
         <v>768.98500000000001</v>
       </c>
-      <c r="E18" s="11">
-        <v>0.13269304208355612</v>
+      <c r="E18" s="29">
+        <f>VLOOKUP(A18,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.10620347370202816</v>
       </c>
       <c r="F18" s="21">
-        <f>(VLOOKUP(A18,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A18,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="G18" s="21">
-        <f>VLOOKUP(A18,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A18,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.65336966516107942</v>
       </c>
     </row>
@@ -5706,15 +6555,16 @@
       <c r="D19" s="15">
         <v>757.49749999999995</v>
       </c>
-      <c r="E19" s="11">
-        <v>0.10576857933152181</v>
+      <c r="E19" s="29">
+        <f>VLOOKUP(A19,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.12144520247482045</v>
       </c>
       <c r="F19" s="21">
-        <f>(VLOOKUP(A19,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A19,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.1400000000000004E-2</v>
       </c>
       <c r="G19" s="21">
-        <f>VLOOKUP(A19,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A19,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.61485537750382757</v>
       </c>
     </row>
@@ -5731,15 +6581,16 @@
       <c r="D20" s="15">
         <v>743.6</v>
       </c>
-      <c r="E20" s="11">
-        <v>8.3566827093136675E-2</v>
+      <c r="E20" s="29">
+        <f>VLOOKUP(A20,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>8.9322837960416082E-2</v>
       </c>
       <c r="F20" s="21">
-        <f>(VLOOKUP(A20,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A20,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G20" s="21">
-        <f>VLOOKUP(A20,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A20,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.51686497402755904</v>
       </c>
     </row>
@@ -5756,15 +6607,16 @@
       <c r="D21" s="15">
         <v>728.8</v>
       </c>
-      <c r="E21" s="11">
-        <v>0.17290363691012925</v>
+      <c r="E21" s="29">
+        <f>VLOOKUP(A21,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.13442141783087155</v>
       </c>
       <c r="F21" s="21">
-        <f>(VLOOKUP(A21,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A21,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.1600000000000003E-2</v>
       </c>
       <c r="G21" s="21">
-        <f>VLOOKUP(A21,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A21,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.61755442367358981</v>
       </c>
     </row>
@@ -5781,15 +6633,16 @@
       <c r="D22" s="15">
         <v>715.7650000000001</v>
       </c>
-      <c r="E22" s="11">
-        <v>0.17743902548820126</v>
+      <c r="E22" s="29">
+        <f>VLOOKUP(A22,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.18996873714379908</v>
       </c>
       <c r="F22" s="21">
-        <f>(VLOOKUP(A22,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A22,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="G22" s="21">
-        <f>VLOOKUP(A22,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A22,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.53491018883871444</v>
       </c>
     </row>
@@ -5806,15 +6659,16 @@
       <c r="D23" s="15">
         <v>621.1</v>
       </c>
-      <c r="E23" s="11">
-        <v>0.15833452235524065</v>
+      <c r="E23" s="29">
+        <f>VLOOKUP(A23,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.16865286529807183</v>
       </c>
       <c r="F23" s="21">
-        <f>(VLOOKUP(A23,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A23,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="G23" s="21">
-        <f>VLOOKUP(A23,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A23,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.48570271686961503</v>
       </c>
     </row>
@@ -5831,15 +6685,16 @@
       <c r="D24" s="15">
         <v>599.77500000000009</v>
       </c>
-      <c r="E24" s="11">
-        <v>0.13052048132249519</v>
+      <c r="E24" s="29">
+        <f>VLOOKUP(A24,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.13125892674318601</v>
       </c>
       <c r="F24" s="21">
-        <f>(VLOOKUP(A24,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A24,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>2.4E-2</v>
       </c>
       <c r="G24" s="21">
-        <f>VLOOKUP(A24,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A24,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.66897518191739946</v>
       </c>
     </row>
@@ -5856,15 +6711,16 @@
       <c r="D25" s="15">
         <v>580.40750000000003</v>
       </c>
-      <c r="E25" s="11">
-        <v>0.13813165862958393</v>
+      <c r="E25" s="29">
+        <f>VLOOKUP(A25,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.1048922609466726</v>
       </c>
       <c r="F25" s="21">
-        <f>(VLOOKUP(A25,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A25,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.8599999999999995E-2</v>
       </c>
       <c r="G25" s="21">
-        <f>VLOOKUP(A25,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A25,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.44024007727035896</v>
       </c>
     </row>
@@ -5881,15 +6737,16 @@
       <c r="D26" s="15">
         <v>545.47249999999997</v>
       </c>
-      <c r="E26" s="11">
-        <v>0.49629850772990541</v>
+      <c r="E26" s="29">
+        <f>VLOOKUP(A26,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.37425367472814081</v>
       </c>
       <c r="F26" s="21">
-        <f>(VLOOKUP(A26,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A26,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>3.1E-2</v>
       </c>
       <c r="G26" s="21">
-        <f>VLOOKUP(A26,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A26,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.29451206268482782</v>
       </c>
     </row>
@@ -5906,15 +6763,16 @@
       <c r="D27" s="14">
         <v>536.64499999999998</v>
       </c>
-      <c r="E27" s="11">
-        <v>0.10010487226630541</v>
+      <c r="E27" s="29">
+        <f>VLOOKUP(A27,[3]主要城市年度数据!$A$5:$B$39,2,0)</f>
+        <v>0.10449389076382461</v>
       </c>
       <c r="F27" s="21">
-        <f>(VLOOKUP(A27,[1]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
+        <f>(VLOOKUP(A27,[2]主要城市年度数据!$A$4:$B$30,2,0))/100</f>
         <v>0.03</v>
       </c>
       <c r="G27" s="21">
-        <f>VLOOKUP(A27,[2]主要城市年度数据!$A$5:$B$30,2,0)</f>
+        <f>VLOOKUP(A27,[1]主要城市年度数据!$A$5:$B$30,2,0)</f>
         <v>0.50932709617598004</v>
       </c>
     </row>
@@ -6025,5 +6883,6 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>